--- a/pipelines/config/etlocal_calculation_rules.xlsx
+++ b/pipelines/config/etlocal_calculation_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koenvanbemmelen/work/etdataset/pipelines/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDDA1F-AACC-7444-9577-CB1CCB1B02D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA02196-C1EF-7145-8388-0C962EA4AF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="22100" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{8A89086D-D34F-A247-B8CF-CBD712F0B042}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="37320" windowHeight="21100" activeTab="1" xr2:uid="{8A89086D-D34F-A247-B8CF-CBD712F0B042}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="9" r:id="rId1"/>
@@ -20,12 +20,9 @@
     <sheet name="A_km-var_to_ivar" sheetId="3" r:id="rId5"/>
     <sheet name="all_ivar_per_source" sheetId="5" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">all_ivar_per_source!$A$1:$D$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">D_ETLocal_keys_to_ovar!$A$1:$C$581</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">D_ETLocal_keys_to_ovar!$A$1:$C$583</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="1434">
   <si>
     <t>Agriculture</t>
   </si>
@@ -3331,9 +3328,6 @@
     <t>input_energy_power_wind_turbine_offshore_full_load_hours</t>
   </si>
   <si>
-    <t>input_solar_panels_roofs_and_parks_full_load_hours</t>
-  </si>
-  <si>
     <t>energy_power_geothermal_full_load_hours</t>
   </si>
   <si>
@@ -3349,9 +3343,6 @@
     <t>energy_power_supercritical_ccs_waste_mix_full_load_hours</t>
   </si>
   <si>
-    <t>flh_solar_pv_solar_radiation_max</t>
-  </si>
-  <si>
     <t>energy_chp_coal_gas_full_load_hours</t>
   </si>
   <si>
@@ -4168,9 +4159,6 @@
     <t>solar_pv_solar_farms_kwh</t>
   </si>
   <si>
-    <t>mq_input_solar_panels_roofs_and_parks_full_load_hours</t>
-  </si>
-  <si>
     <t>total_road_electricity_demand_nl_tj</t>
   </si>
   <si>
@@ -4355,13 +4343,28 @@
   </si>
   <si>
     <t>Klimaatmonitor transport data (derived)</t>
+  </si>
+  <si>
+    <t>input_solar_pv_on_roof_households_full_load_hours</t>
+  </si>
+  <si>
+    <t>input_solar_pv_on_roof_buildings_full_load_hours</t>
+  </si>
+  <si>
+    <t>input_solar_pv_on_land_full_load_hours</t>
+  </si>
+  <si>
+    <t>input_solar_csp_full_load_hours</t>
+  </si>
+  <si>
+    <t>mq_input_solar_pv_on_land_full_load_hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4437,25 +4440,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Satoshi"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Satoshi"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF1D1C1D"/>
       <name val="Aptos Display"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4512,22 +4503,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4566,12 +4541,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4599,24 +4572,19 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -5505,3033 +5473,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Overzicht aanpak per key"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Production keys"/>
-      <sheetName val="Final demand keys"/>
-      <sheetName val="variabelen Excels A-C (D)"/>
-      <sheetName val="D ETLocal_keys_commits_mapping"/>
-      <sheetName val="Categorisatie keys offerte"/>
-      <sheetName val="README"/>
-      <sheetName val="Data review"/>
-      <sheetName val="Sources"/>
-      <sheetName val="Notes"/>
-      <sheetName val="Transport input variables"/>
-      <sheetName val="Alle keys NL dataset 2019"/>
-      <sheetName val="Klimaatmonitor 2019 gemeenten"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>ETLocal key</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Variable</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>analysis_year</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>analysis_year</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>number_of_inhabitants</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>no_inhabitants</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>number_of_cars</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>no_cars</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>number_of_vans</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>number_of_vans</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>number_of_trucks</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>number_of_trucks</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>number_of_busses</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>number_of_busses</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>energetic_emissions_other_ghg_agriculture</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>energetic_emissions_other_ghg_agriculture</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>energetic_emissions_other_ghg_buildings</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>energetic_emissions_other_ghg_buildings</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>energetic_emissions_other_ghg_energy</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>energetic_emissions_other_ghg_energy</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>energetic_emissions_other_ghg_households</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>energetic_emissions_other_ghg_households</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>energetic_emissions_other_ghg_industry</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>energetic_emissions_other_ghg_industry</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>energetic_emissions_other_ghg_transport</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>energetic_emissions_other_ghg_transport</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>indirect_emissions_co2</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>indirect_emissions_co2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>non_energetic_emissions_co2_agriculture_manure</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>non_energetic_emissions_co2_agriculture_manure</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>non_energetic_emissions_co2_agriculture_soil_cultivation</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>non_energetic_emissions_co2_agriculture_soil_cultivation</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>non_energetic_emissions_co2_chemical_industry</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>non_energetic_emissions_co2_chemical_industry</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>non_energetic_emissions_co2_other_industry</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>non_energetic_emissions_co2_other_industry</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>non_energetic_emissions_co2_waste_management</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>non_energetic_emissions_co2_waste_management</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>non_energetic_emissions_other_ghg_agriculture_fermentation</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>non_energetic_emissions_other_ghg_agriculture_fermentation</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>non_energetic_emissions_other_ghg_agriculture_manure</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>non_energetic_emissions_other_ghg_agriculture_manure</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>non_energetic_emissions_other_ghg_agriculture_other</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>non_energetic_emissions_other_ghg_agriculture_other</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>non_energetic_emissions_other_ghg_agriculture_soil_cultivation</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>non_energetic_emissions_other_ghg_agriculture_soil_cultivation</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>non_energetic_emissions_other_ghg_chemical_industry</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>non_energetic_emissions_other_ghg_chemical_industry</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>non_energetic_emissions_other_ghg_other_industry</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>non_energetic_emissions_other_ghg_other_industry</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>non_energetic_emissions_other_ghg_waste_management</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>non_energetic_emissions_other_ghg_waste_management</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>offshore_suitable_for_wind</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>offshore_suitable_for_wind</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>lv_net_total_costs_present</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>lv_net_total_costs_present</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>mv_net_total_costs_present</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>mv_net_total_costs_present</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>hv_net_total_costs_present</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>hv_net_total_costs_present</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>lv_mv_trafo_total_costs_present</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>lv_mv_trafo_total_costs_present</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>mv_hv_trafo_total_costs_present</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>mv_hv_trafo_total_costs_present</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>offshore_net_costs_present</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>co2_emission_1990</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>co2_1990_mt</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>interconnection_net_costs_present</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>file_carriers_coal_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>file_carriers_coal_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>file_carriers_crude_oil_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>file_carriers_crude_oil_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>file_carriers_diesel_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>file_carriers_diesel_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>file_carriers_gasoline_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>file_carriers_gasoline_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>file_carriers_heavy_fuel_oil_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>file_carriers_heavy_fuel_oil_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>file_carriers_imported_electricity_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>file_carriers_imported_electricity_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>file_carriers_imported_heat_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>file_carriers_imported_heat_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>file_carriers_kerosene_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>file_carriers_kerosene_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>file_carriers_lignite_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>file_carriers_lignite_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>file_carriers_lng_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>file_carriers_lng_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>file_carriers_lpg_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>file_carriers_lpg_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>file_carriers_natural_gas_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>file_carriers_natural_gas_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>file_carriers_non_biogenic_waste_co2_conversion_per_mj</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>file_carriers_non_biogenic_waste_co2_conversion_per_mj</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>input_transport_road_human_powered_bicycle_demand</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>bike_kms_human_powered</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>input_transport_road_gasoline_demand</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>tp_road_total_gasoline_tj</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>input_transport_road_diesel_demand</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>tp_road_total_diesel_tj</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>transport_final_demand_lpg_demand</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>tp_road_total_lpg_tj</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>input_transport_road_electricity_demand</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>tp_road_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>input_transport_road_bio_ethanol_demand</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>tp_road_total_bio_ethanol_tj</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>input_transport_road_biodiesel_demand</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>tp_road_total_biodiesel_tj</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>transport_final_demand_for_road_compressed_network_gas_demand</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>tp_road_total_natural_gas_tj</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>transport_final_demand_hydrogen_demand</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>tp_road_h2_tj</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>transport_final_demand_for_road_lng_demand</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>transport_final_demand_for_road_bio_lng_demand</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>input_transport_ship_diesel_demand</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>transport_ship_diesel_tj</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>input_transport_ship_biodiesel_demand</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>input_transport_ship_electricity_demand</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>transport_final_demand_for_shipping_lng_demand</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>transport_final_demand_for_shipping_bio_lng_demand</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>transport_final_demand_heavy_fuel_oil_demand</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>input_transport_rail_electricity_demand</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>tp_rail_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>input_transport_rail_diesel_demand</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>tp_rail_diesel_tj</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>input_transport_rail_biodiesel_demand</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>transport_final_demand_coal_demand</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>transport_final_demand_kerosene_demand</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>input_transport_plane_gasoline_demand</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>input_transport_plane_bio_ethanol_demand</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>input_transport_plane_electricity_demand</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>transport_road_mixer_gasoline_transport_car_using_gasoline_mix_parent_share</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>tp_road_gasoline_car_share</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>transport_road_mixer_gasoline_transport_bus_using_gasoline_mix_parent_share</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>tp_road_gasoline_bus_share</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>transport_road_mixer_gasoline_transport_truck_using_gasoline_mix_parent_share</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>tp_road_gasoline_truck_share</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>transport_road_mixer_gasoline_transport_motorcycle_using_gasoline_mix_parent_share</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>tp_road_gasoline_motorcycle_share</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>transport_road_mixer_gasoline_transport_van_using_gasoline_mix_parent_share</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>tp_road_gasoline_van_share</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>transport_road_mixer_diesel_transport_car_using_diesel_mix_parent_share</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>tp_road_diesel_car_share</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80" t="str">
-            <v>transport_road_mixer_diesel_transport_bus_using_diesel_mix_parent_share</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v>tp_road_diesel_bus_share</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v>transport_road_mixer_diesel_transport_truck_using_diesel_mix_parent_share</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>tp_road_diesel_truck_share</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>transport_road_mixer_diesel_transport_van_using_diesel_mix_parent_share</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>tp_road_diesel_van_share</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83" t="str">
-            <v>transport_final_demand_for_road_electricity_transport_car_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C83" t="str">
-            <v>tp_road_electricity_car_share</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84" t="str">
-            <v>transport_final_demand_for_road_electricity_transport_bus_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C84" t="str">
-            <v>tp_road_electricity_bus_share</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85" t="str">
-            <v>transport_final_demand_for_road_electricity_transport_motorcycle_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C85" t="str">
-            <v>tp_road_electricity_motorcycle_share</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86" t="str">
-            <v>transport_final_demand_for_road_electricity_transport_bicycle_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>tp_road_electricity_bike_share</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87" t="str">
-            <v>transport_final_demand_for_road_electricity_transport_truck_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>tp_road_electricity_truck_share</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88" t="str">
-            <v>transport_final_demand_for_road_electricity_transport_van_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>tp_road_electricity_van_share</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89" t="str">
-            <v>transport_road_mixer_compressed_network_gas_transport_car_using_compressed_natural_gas_parent_share</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90" t="str">
-            <v>transport_road_mixer_compressed_network_gas_transport_bus_using_compressed_natural_gas_parent_share</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>one</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91" t="str">
-            <v>transport_road_mixer_compressed_network_gas_transport_truck_using_compressed_natural_gas_parent_share</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92" t="str">
-            <v>transport_road_mixer_compressed_network_gas_transport_van_using_compressed_natural_gas_parent_share</v>
-          </cell>
-          <cell r="C92" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93" t="str">
-            <v>input_transport_road_car_hydrogen_share</v>
-          </cell>
-          <cell r="C93" t="str">
-            <v>tp_road_h2_car_share</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94" t="str">
-            <v>transport_final_demand_for_road_hydrogen_transport_bus_using_hydrogen_parent_share</v>
-          </cell>
-          <cell r="C94" t="str">
-            <v>tp_road_h2_bus_share</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95" t="str">
-            <v>transport_final_demand_for_road_hydrogen_transport_truck_using_hydrogen_parent_share</v>
-          </cell>
-          <cell r="C95" t="str">
-            <v>tp_road_h2_truck_share</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96" t="str">
-            <v>transport_final_demand_for_road_hydrogen_transport_van_using_hydrogen_parent_share</v>
-          </cell>
-          <cell r="C96" t="str">
-            <v>tp_road_h2_van_share</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97" t="str">
-            <v>transport_final_demand_for_road_lpg_transport_car_using_lpg_parent_share</v>
-          </cell>
-          <cell r="C97" t="str">
-            <v>tp_road_lpg_car_share</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98" t="str">
-            <v>transport_final_demand_for_road_lpg_transport_van_using_lpg_parent_share</v>
-          </cell>
-          <cell r="C98" t="str">
-            <v>tp_road_lpg_van_share</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99" t="str">
-            <v>transport_final_demand_for_rail_electricity_transport_passenger_train_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C99" t="str">
-            <v>tp_rail_electricity_passenger_train_share</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100" t="str">
-            <v>transport_final_demand_for_rail_electricity_transport_tram_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C100" t="str">
-            <v>tp_rail_electricity_tram_share</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101" t="str">
-            <v>transport_final_demand_for_rail_electricity_transport_freight_train_using_electricity_parent_share</v>
-          </cell>
-          <cell r="C101" t="str">
-            <v>tp_rail_electricity_freight_train_share</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102" t="str">
-            <v>transport_rail_mixer_diesel_transport_freight_train_using_diesel_mix_parent_share</v>
-          </cell>
-          <cell r="C102" t="str">
-            <v>transport_rail_mixer_diesel_transport_freight_train_using_diesel_mix_parent_share</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103" t="str">
-            <v>transport_rail_mixer_diesel_transport_passenger_train_using_diesel_mix_parent_share</v>
-          </cell>
-          <cell r="C103" t="str">
-            <v>transport_rail_mixer_diesel_transport_passenger_train_using_diesel_mix_parent_share</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104" t="str">
-            <v>transport_road_mixer_lng_transport_bus_using_lng_mix_parent_share</v>
-          </cell>
-          <cell r="C104" t="str">
-            <v>transport_road_mixer_lng_transport_bus_using_lng_mix_parent_share</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105" t="str">
-            <v>bunkers_total_useful_demand_ships_demand</v>
-          </cell>
-          <cell r="C105" t="str">
-            <v>bunkers_total_useful_demand_ships_demand</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106" t="str">
-            <v>bunkers_total_useful_demand_planes_demand</v>
-          </cell>
-          <cell r="C106" t="str">
-            <v>bunkers_total_useful_demand_planes_demand</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107" t="str">
-            <v>transport_road_mixer_lng_transport_truck_using_lng_mix_parent_share</v>
-          </cell>
-          <cell r="C107" t="str">
-            <v>transport_road_mixer_lng_transport_truck_using_lng_mix_parent_share</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108" t="str">
-            <v>households_final_demand_electricity_demand</v>
-          </cell>
-          <cell r="C108" t="str">
-            <v>hh_elec_tj_inc_own_use_solar_minus_home_charging</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109" t="str">
-            <v>households_final_demand_network_gas_demand</v>
-          </cell>
-          <cell r="C109" t="str">
-            <v>hh_gas_tj</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110" t="str">
-            <v>input_households_solar_pv_demand</v>
-          </cell>
-          <cell r="C110" t="str">
-            <v>solar_pv_households_tj</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111" t="str">
-            <v>households_final_demand_coal_demand</v>
-          </cell>
-          <cell r="C111" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112" t="str">
-            <v>input_households_final_demand_crude_oil_demand</v>
-          </cell>
-          <cell r="C112" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113" t="str">
-            <v>input_households_final_demand_steam_hot_water_demand</v>
-          </cell>
-          <cell r="C113" t="str">
-            <v>hh_heat_tj</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114" t="str">
-            <v>households_final_demand_wood_pellets_demand</v>
-          </cell>
-          <cell r="C114" t="str">
-            <v>hh_biomass_total_tj</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115" t="str">
-            <v>households_final_demand_solar_thermal_demand</v>
-          </cell>
-          <cell r="C115" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116" t="str">
-            <v>households_final_demand_wood_pellets_households_final_demand_for_space_heating_wood_pellets_parent_share</v>
-          </cell>
-          <cell r="C116" t="str">
-            <v>hh_biomass_heating_share</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117" t="str">
-            <v>households_final_demand_wood_pellets_households_final_demand_for_cooking_wood_pellets_parent_share</v>
-          </cell>
-          <cell r="C117" t="str">
-            <v>hh_biomass_cooking_share</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118" t="str">
-            <v>households_final_demand_wood_pellets_households_final_demand_for_hot_water_wood_pellets_parent_share</v>
-          </cell>
-          <cell r="C118" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119" t="str">
-            <v>households_final_demand_coal_households_final_demand_for_hot_water_coal_parent_share</v>
-          </cell>
-          <cell r="C119" t="str">
-            <v>households_final_demand_coal_households_final_demand_for_hot_water_coal_parent_share</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120" t="str">
-            <v>households_final_demand_coal_households_final_demand_for_space_heating_coal_parent_share</v>
-          </cell>
-          <cell r="C120" t="str">
-            <v>households_final_demand_coal_households_final_demand_for_space_heating_coal_parent_share</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121" t="str">
-            <v>households_final_demand_crude_oil_households_final_demand_for_hot_water_crude_oil_parent_share</v>
-          </cell>
-          <cell r="C121" t="str">
-            <v>households_final_demand_crude_oil_households_final_demand_for_hot_water_crude_oil_parent_share</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122" t="str">
-            <v>households_final_demand_crude_oil_households_final_demand_for_space_heating_crude_oil_parent_share</v>
-          </cell>
-          <cell r="C122" t="str">
-            <v>households_final_demand_crude_oil_households_final_demand_for_space_heating_crude_oil_parent_share</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_appliances_electricity_parent_share</v>
-          </cell>
-          <cell r="C123" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_appliances_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_cooking_electricity_parent_share</v>
-          </cell>
-          <cell r="C124" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_cooking_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_cooling_electricity_parent_share</v>
-          </cell>
-          <cell r="C125" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_cooling_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_hot_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C126" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_hot_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_lighting_electricity_parent_share</v>
-          </cell>
-          <cell r="C127" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_lighting_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_space_heating_electricity_parent_share</v>
-          </cell>
-          <cell r="C128" t="str">
-            <v>households_final_demand_electricity_households_final_demand_for_space_heating_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129" t="str">
-            <v>households_final_demand_network_gas_households_final_demand_for_cooking_network_gas_parent_share</v>
-          </cell>
-          <cell r="C129" t="str">
-            <v>households_final_demand_network_gas_households_final_demand_for_cooking_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130" t="str">
-            <v>households_final_demand_network_gas_households_final_demand_for_cooling_network_gas_parent_share</v>
-          </cell>
-          <cell r="C130" t="str">
-            <v>households_final_demand_network_gas_households_final_demand_for_cooling_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131" t="str">
-            <v>households_final_demand_network_gas_households_final_demand_for_hot_water_network_gas_parent_share</v>
-          </cell>
-          <cell r="C131" t="str">
-            <v>households_final_demand_network_gas_households_final_demand_for_hot_water_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132" t="str">
-            <v>households_final_demand_network_gas_households_final_demand_for_space_heating_network_gas_parent_share</v>
-          </cell>
-          <cell r="C132" t="str">
-            <v>households_final_demand_network_gas_households_final_demand_for_space_heating_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133" t="str">
-            <v>input_households_final_demand_steam_hot_water_households_final_demand_for_space_heating_steam_hot_water_parent_share</v>
-          </cell>
-          <cell r="C133" t="str">
-            <v>households_final_demand_steam_hot_water_households_final_demand_for_space_heating_steam_hot_water_parent_share</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_clothes_dryer_electricity_parent_share</v>
-          </cell>
-          <cell r="C134" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_clothes_dryer_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_computer_media_electricity_parent_share</v>
-          </cell>
-          <cell r="C135" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_computer_media_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_dishwasher_electricity_parent_share</v>
-          </cell>
-          <cell r="C136" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_dishwasher_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_fridge_freezer_electricity_parent_share</v>
-          </cell>
-          <cell r="C137" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_fridge_freezer_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_other_electricity_parent_share</v>
-          </cell>
-          <cell r="C138" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_other_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_television_electricity_parent_share</v>
-          </cell>
-          <cell r="C139" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_television_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_vacuum_cleaner_electricity_parent_share</v>
-          </cell>
-          <cell r="C140" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_vacuum_cleaner_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_washing_machine_electricity_parent_share</v>
-          </cell>
-          <cell r="C141" t="str">
-            <v>households_final_demand_for_appliances_electricity_households_appliances_washing_machine_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142" t="str">
-            <v>households_final_demand_for_cooking_electricity_households_cooker_halogen_electricity_parent_share</v>
-          </cell>
-          <cell r="C142" t="str">
-            <v>households_final_demand_for_cooking_electricity_households_cooker_halogen_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143" t="str">
-            <v>households_final_demand_for_cooking_electricity_households_cooker_induction_electricity_parent_share</v>
-          </cell>
-          <cell r="C143" t="str">
-            <v>households_final_demand_for_cooking_electricity_households_cooker_induction_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144" t="str">
-            <v>households_final_demand_for_cooking_electricity_households_cooker_resistive_electricity_parent_share</v>
-          </cell>
-          <cell r="C144" t="str">
-            <v>households_final_demand_for_cooking_electricity_households_cooker_resistive_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145" t="str">
-            <v>households_final_demand_for_cooling_electricity_households_cooling_airconditioning_electricity_parent_share</v>
-          </cell>
-          <cell r="C145" t="str">
-            <v>households_final_demand_for_cooling_electricity_households_cooling_airconditioning_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146" t="str">
-            <v>households_final_demand_for_cooling_electricity_households_cooling_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C146" t="str">
-            <v>households_final_demand_for_cooling_electricity_households_cooling_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147" t="str">
-            <v>households_final_demand_for_cooling_electricity_households_cooling_heatpump_ground_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C147" t="str">
-            <v>households_final_demand_for_cooling_electricity_households_cooling_heatpump_ground_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148" t="str">
-            <v>households_final_demand_for_lighting_electricity_households_lighting_efficient_fluorescent_electricity_parent_share</v>
-          </cell>
-          <cell r="C148" t="str">
-            <v>households_final_demand_for_lighting_electricity_households_lighting_efficient_fluorescent_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149" t="str">
-            <v>households_final_demand_for_lighting_electricity_households_lighting_incandescent_electricity_parent_share</v>
-          </cell>
-          <cell r="C149" t="str">
-            <v>households_final_demand_for_lighting_electricity_households_lighting_incandescent_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150" t="str">
-            <v>households_final_demand_for_lighting_electricity_households_lighting_led_electricity_parent_share</v>
-          </cell>
-          <cell r="C150" t="str">
-            <v>households_final_demand_for_lighting_electricity_households_lighting_led_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151" t="str">
-            <v>households_final_demand_for_space_heating_electricity_households_space_heater_electricity_parent_share</v>
-          </cell>
-          <cell r="C151" t="str">
-            <v>households_final_demand_for_space_heating_electricity_households_space_heater_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152" t="str">
-            <v>households_final_demand_for_space_heating_electricity_households_space_heater_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C152" t="str">
-            <v>households_final_demand_for_space_heating_electricity_households_space_heater_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153" t="str">
-            <v>households_final_demand_for_space_heating_electricity_households_space_heater_heatpump_ground_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C153" t="str">
-            <v>households_final_demand_for_space_heating_electricity_households_space_heater_heatpump_ground_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154" t="str">
-            <v>households_final_demand_for_space_heating_electricity_households_space_heater_hybrid_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C154" t="str">
-            <v>households_final_demand_for_space_heating_electricity_households_space_heater_hybrid_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155" t="str">
-            <v>households_final_demand_for_space_heating_network_gas_households_space_heater_combined_network_gas_parent_share</v>
-          </cell>
-          <cell r="C155" t="str">
-            <v>households_final_demand_for_space_heating_network_gas_households_space_heater_combined_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156" t="str">
-            <v>households_final_demand_for_space_heating_network_gas_households_space_heater_hybrid_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C156" t="str">
-            <v>households_final_demand_for_space_heating_network_gas_households_space_heater_hybrid_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157" t="str">
-            <v>households_final_demand_for_space_heating_network_gas_households_space_heater_network_gas_parent_share</v>
-          </cell>
-          <cell r="C157" t="str">
-            <v>households_final_demand_for_space_heating_network_gas_households_space_heater_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158" t="str">
-            <v>input_buildings_electricity_demand</v>
-          </cell>
-          <cell r="C158" t="str">
-            <v>bd_electricity_tj_corrected</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159" t="str">
-            <v>buildings_final_demand_network_gas_demand</v>
-          </cell>
-          <cell r="C159" t="str">
-            <v>bd_gas_services_tj</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160" t="str">
-            <v>input_buildings_final_demand_steam_hot_water_demand</v>
-          </cell>
-          <cell r="C160" t="str">
-            <v>buildings_collective_heat_demand</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161" t="str">
-            <v>buildings_final_demand_wood_pellets_demand</v>
-          </cell>
-          <cell r="C161" t="str">
-            <v>buildings_individual_biomass_demand</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162" t="str">
-            <v>buildings_final_demand_coal_demand</v>
-          </cell>
-          <cell r="C162" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163" t="str">
-            <v>input_buildings_final_demand_crude_oil_demand</v>
-          </cell>
-          <cell r="C163" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164" t="str">
-            <v>buildings_final_demand_solar_thermal_demand</v>
-          </cell>
-          <cell r="C164" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165" t="str">
-            <v>buildings_final_demand_coal_buildings_final_demand_for_appliances_coal_parent_share</v>
-          </cell>
-          <cell r="C165" t="str">
-            <v>buildings_final_demand_coal_buildings_final_demand_for_appliances_coal_parent_share</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166" t="str">
-            <v>buildings_final_demand_coal_buildings_final_demand_for_space_heating_coal_parent_share</v>
-          </cell>
-          <cell r="C166" t="str">
-            <v>buildings_final_demand_coal_buildings_final_demand_for_space_heating_coal_parent_share</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167" t="str">
-            <v>buildings_final_demand_crude_oil_buildings_final_demand_for_appliances_crude_oil_parent_share</v>
-          </cell>
-          <cell r="C167" t="str">
-            <v>buildings_final_demand_crude_oil_buildings_final_demand_for_appliances_crude_oil_parent_share</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168" t="str">
-            <v>buildings_final_demand_crude_oil_buildings_final_demand_for_space_heating_crude_oil_parent_share</v>
-          </cell>
-          <cell r="C168" t="str">
-            <v>buildings_final_demand_crude_oil_buildings_final_demand_for_space_heating_crude_oil_parent_share</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169" t="str">
-            <v>buildings_final_demand_electricity_buildings_final_demand_for_appliances_electricity_parent_share</v>
-          </cell>
-          <cell r="C169" t="str">
-            <v>buildings_final_demand_electricity_buildings_final_demand_for_appliances_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170" t="str">
-            <v>buildings_final_demand_electricity_buildings_final_demand_for_cooling_electricity_parent_share</v>
-          </cell>
-          <cell r="C170" t="str">
-            <v>buildings_final_demand_electricity_buildings_final_demand_for_cooling_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171" t="str">
-            <v>buildings_final_demand_electricity_buildings_final_demand_for_lighting_electricity_parent_share</v>
-          </cell>
-          <cell r="C171" t="str">
-            <v>buildings_final_demand_electricity_buildings_final_demand_for_lighting_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172" t="str">
-            <v>buildings_final_demand_electricity_buildings_final_demand_for_space_heating_electricity_parent_share</v>
-          </cell>
-          <cell r="C172" t="str">
-            <v>buildings_final_demand_electricity_buildings_final_demand_for_space_heating_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173" t="str">
-            <v>buildings_final_demand_network_gas_buildings_final_demand_for_appliances_network_gas_parent_share</v>
-          </cell>
-          <cell r="C173" t="str">
-            <v>buildings_final_demand_network_gas_buildings_final_demand_for_appliances_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174" t="str">
-            <v>buildings_final_demand_network_gas_buildings_final_demand_for_cooling_network_gas_parent_share</v>
-          </cell>
-          <cell r="C174" t="str">
-            <v>buildings_final_demand_network_gas_buildings_final_demand_for_cooling_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175" t="str">
-            <v>buildings_final_demand_network_gas_buildings_final_demand_for_space_heating_network_gas_parent_share</v>
-          </cell>
-          <cell r="C175" t="str">
-            <v>buildings_final_demand_network_gas_buildings_final_demand_for_space_heating_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176" t="str">
-            <v>buildings_final_demand_wood_pellets_buildings_final_demand_for_appliances_wood_pellets_parent_share</v>
-          </cell>
-          <cell r="C176" t="str">
-            <v>buildings_final_demand_wood_pellets_buildings_final_demand_for_appliances_wood_pellets_parent_share</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177" t="str">
-            <v>buildings_final_demand_wood_pellets_buildings_final_demand_for_space_heating_wood_pellets_parent_share</v>
-          </cell>
-          <cell r="C177" t="str">
-            <v>buildings_final_demand_wood_pellets_buildings_final_demand_for_space_heating_wood_pellets_parent_share</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178" t="str">
-            <v>buildings_final_demand_for_cooling_electricity_buildings_cooling_airconditioning_electricity_parent_share</v>
-          </cell>
-          <cell r="C178" t="str">
-            <v>buildings_final_demand_for_cooling_electricity_buildings_cooling_airconditioning_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179" t="str">
-            <v>buildings_final_demand_for_cooling_electricity_buildings_cooling_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C179" t="str">
-            <v>buildings_final_demand_for_cooling_electricity_buildings_cooling_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180" t="str">
-            <v>buildings_final_demand_for_cooling_electricity_buildings_cooling_collective_heatpump_water_water_ts_electricity_parent_share</v>
-          </cell>
-          <cell r="C180" t="str">
-            <v>buildings_final_demand_for_cooling_electricity_buildings_cooling_collective_heatpump_water_water_ts_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181" t="str">
-            <v>buildings_final_demand_for_lighting_electricity_buildings_lighting_efficient_fluorescent_electricity_parent_share</v>
-          </cell>
-          <cell r="C181" t="str">
-            <v>buildings_final_demand_for_lighting_electricity_buildings_lighting_efficient_fluorescent_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182" t="str">
-            <v>buildings_final_demand_for_lighting_electricity_buildings_lighting_led_electricity_parent_share</v>
-          </cell>
-          <cell r="C182" t="str">
-            <v>buildings_final_demand_for_lighting_electricity_buildings_lighting_led_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183" t="str">
-            <v>buildings_final_demand_for_lighting_electricity_buildings_lighting_standard_fluorescent_electricity_parent_share</v>
-          </cell>
-          <cell r="C183" t="str">
-            <v>buildings_final_demand_for_lighting_electricity_buildings_lighting_standard_fluorescent_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184" t="str">
-            <v>buildings_final_demand_for_space_heating_electricity_buildings_space_heater_collective_heatpump_water_water_ts_electricity_parent_share</v>
-          </cell>
-          <cell r="C184" t="str">
-            <v>buildings_final_demand_for_space_heating_electricity_buildings_space_heater_collective_heatpump_water_water_ts_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185" t="str">
-            <v>buildings_final_demand_for_space_heating_electricity_buildings_space_heater_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-          <cell r="C185" t="str">
-            <v>buildings_final_demand_for_space_heating_electricity_buildings_space_heater_heatpump_air_water_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186" t="str">
-            <v>buildings_final_demand_for_space_heating_electricity_buildings_space_heater_electricity_parent_share</v>
-          </cell>
-          <cell r="C186" t="str">
-            <v>buildings_final_demand_for_space_heating_electricity_buildings_space_heater_electricity_parent_share</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187" t="str">
-            <v>buildings_final_demand_for_space_heating_network_gas_buildings_space_heater_heatpump_air_water_network_gas_parent_share</v>
-          </cell>
-          <cell r="C187" t="str">
-            <v>buildings_final_demand_for_space_heating_network_gas_buildings_space_heater_heatpump_air_water_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188" t="str">
-            <v>buildings_final_demand_for_space_heating_network_gas_buildings_space_heater_network_gas_parent_share</v>
-          </cell>
-          <cell r="C188" t="str">
-            <v>buildings_final_demand_for_space_heating_network_gas_buildings_space_heater_network_gas_parent_share</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189" t="str">
-            <v>input_buildings_solar_pv_demand</v>
-          </cell>
-          <cell r="C189" t="str">
-            <v>solar_pv_buildings_tj</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190" t="str">
-            <v>agriculture_final_demand_electricity_demand</v>
-          </cell>
-          <cell r="C190" t="str">
-            <v>agri_electricity_demand_tj</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191" t="str">
-            <v>agriculture_final_demand_network_gas_demand</v>
-          </cell>
-          <cell r="C191" t="str">
-            <v>agri_gas_fd_tj</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192" t="str">
-            <v>input_agriculture_final_demand_steam_hot_water_demand</v>
-          </cell>
-          <cell r="C192" t="str">
-            <v>agri_heat_demand_tj</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193" t="str">
-            <v>agriculture_final_demand_wood_pellets_demand</v>
-          </cell>
-          <cell r="C193" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194" t="str">
-            <v>input_agriculture_final_demand_crude_oil_demand</v>
-          </cell>
-          <cell r="C194" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195" t="str">
-            <v>agriculture_final_demand_hydrogen_demand</v>
-          </cell>
-          <cell r="C195" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196" t="str">
-            <v>agriculture_chp_engine_network_gas_dispatchable_demand</v>
-          </cell>
-          <cell r="C196" t="str">
-            <v>agri_gas_chp_tj</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197" t="str">
-            <v>agriculture_chp_engine_biogas_demand</v>
-          </cell>
-          <cell r="C197" t="str">
-            <v>agri_biogas_chp_input_tj</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198" t="str">
-            <v>agriculture_chp_wood_pellets_demand</v>
-          </cell>
-          <cell r="C198" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199" t="str">
-            <v>input_agriculture_chp_engine_network_gas_dispatchable_electricity_output_conversion</v>
-          </cell>
-          <cell r="C199" t="str">
-            <v>input_agriculture_chp_engine_network_gas_dispatchable_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200" t="str">
-            <v>input_agriculture_chp_engine_network_gas_dispatchable_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C200" t="str">
-            <v>input_agriculture_chp_engine_network_gas_dispatchable_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201" t="str">
-            <v>input_agriculture_chp_engine_biogas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C201" t="str">
-            <v>input_agriculture_chp_engine_biogas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202" t="str">
-            <v>input_agriculture_chp_engine_biogas_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C202" t="str">
-            <v>input_agriculture_chp_engine_biogas_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203" t="str">
-            <v>input_agriculture_chp_wood_pellets_electricity_output_conversion</v>
-          </cell>
-          <cell r="C203" t="str">
-            <v>input_agriculture_chp_wood_pellets_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204" t="str">
-            <v>input_agriculture_chp_wood_pellets_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C204" t="str">
-            <v>input_agriculture_chp_wood_pellets_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205" t="str">
-            <v>agriculture_chp_engine_network_gas_dispatchable_full_load_hours</v>
-          </cell>
-          <cell r="C205" t="str">
-            <v>agriculture_chp_engine_network_gas_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206" t="str">
-            <v>agriculture_chp_wood_pellets_full_load_hours</v>
-          </cell>
-          <cell r="C206" t="str">
-            <v>agriculture_chp_wood_pellets_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207" t="str">
-            <v>agriculture_chp_engine_biogas_full_load_hours</v>
-          </cell>
-          <cell r="C207" t="str">
-            <v>agriculture_chp_engine_biogas_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208" t="str">
-            <v>industry_chp_ultra_supercritical_coal_demand</v>
-          </cell>
-          <cell r="C208" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209" t="str">
-            <v>industry_chp_turbine_gas_power_fuelmix_demand</v>
-          </cell>
-          <cell r="C209" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210" t="str">
-            <v>industry_chp_engine_gas_power_fuelmix_demand</v>
-          </cell>
-          <cell r="C210" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211" t="str">
-            <v>industry_chp_combined_cycle_gas_power_fuelmix_demand</v>
-          </cell>
-          <cell r="C211" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="B212" t="str">
-            <v>input_share_mixer_gas_fuel_bio_oil</v>
-          </cell>
-          <cell r="C212" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213" t="str">
-            <v>input_share_mixer_gas_fuel_oil</v>
-          </cell>
-          <cell r="C213" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214" t="str">
-            <v>input_share_mixer_gas_fuel_network_gas</v>
-          </cell>
-          <cell r="C214" t="str">
-            <v>one</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215" t="str">
-            <v>input_industry_ict_electricity_demand</v>
-          </cell>
-          <cell r="C215" t="str">
-            <v>bd_electricity_sbi_j_tj</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216" t="str">
-            <v>input_industry_chemical_other_electricity_demand</v>
-          </cell>
-          <cell r="C216" t="str">
-            <v>chemical_other_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217" t="str">
-            <v>input_industry_food_electricity_demand</v>
-          </cell>
-          <cell r="C217" t="str">
-            <v>food_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218" t="str">
-            <v>input_industry_metal_other_electricity_demand</v>
-          </cell>
-          <cell r="C218" t="str">
-            <v>metal_other_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="B219" t="str">
-            <v>input_industry_paper_electricity_demand</v>
-          </cell>
-          <cell r="C219" t="str">
-            <v>paper_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="B220" t="str">
-            <v>input_industry_other_electricity_demand</v>
-          </cell>
-          <cell r="C220" t="str">
-            <v>industry_other_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="B221" t="str">
-            <v>input_industry_chemical_other_network_gas_demand</v>
-          </cell>
-          <cell r="C221" t="str">
-            <v>chemical_other_gas_tj</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222" t="str">
-            <v>input_industry_food_network_gas_demand</v>
-          </cell>
-          <cell r="C222" t="str">
-            <v>food_gas_tj</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="B223" t="str">
-            <v>input_industry_metal_other_network_gas_demand</v>
-          </cell>
-          <cell r="C223" t="str">
-            <v>metal_other_gas_tj</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="B224" t="str">
-            <v>input_industry_paper_network_gas_demand</v>
-          </cell>
-          <cell r="C224" t="str">
-            <v>paper_gas_tj</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="B225" t="str">
-            <v>input_industry_other_network_gas_demand</v>
-          </cell>
-          <cell r="C225" t="str">
-            <v>industry_other_gas_tj</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226" t="str">
-            <v>input_industry_chemical_other_crude_oil_demand</v>
-          </cell>
-          <cell r="C226" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227" t="str">
-            <v>input_industry_chemical_other_coal_demand</v>
-          </cell>
-          <cell r="C227" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="B228" t="str">
-            <v>input_industry_chemical_other_network_gas_non_energetic_demand</v>
-          </cell>
-          <cell r="C228" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="B229" t="str">
-            <v>input_industry_chemical_other_wood_pellets_non_energetic_demand</v>
-          </cell>
-          <cell r="C229" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="B230" t="str">
-            <v>input_industry_chemical_other_crude_oil_non_energetic_demand</v>
-          </cell>
-          <cell r="C230" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231" t="str">
-            <v>input_industry_chemical_other_coal_non_energetic_demand</v>
-          </cell>
-          <cell r="C231" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232" t="str">
-            <v>input_industry_food_crude_oil_demand</v>
-          </cell>
-          <cell r="C232" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="B233" t="str">
-            <v>input_industry_food_coal_demand</v>
-          </cell>
-          <cell r="C233" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="B234" t="str">
-            <v>input_industry_metal_other_crude_oil_demand</v>
-          </cell>
-          <cell r="C234" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="B235" t="str">
-            <v>input_industry_metal_other_coal_demand</v>
-          </cell>
-          <cell r="C235" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="B236" t="str">
-            <v>input_industry_other_crude_oil_demand</v>
-          </cell>
-          <cell r="C236" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="B237" t="str">
-            <v>input_industry_other_coal_demand</v>
-          </cell>
-          <cell r="C237" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="B238" t="str">
-            <v>input_industry_other_wood_pellets_demand</v>
-          </cell>
-          <cell r="C238" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="B239" t="str">
-            <v>input_industry_other_network_gas_non_energetic_demand</v>
-          </cell>
-          <cell r="C239" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="B240" t="str">
-            <v>input_industry_other_wood_pellets_non_energetic_demand</v>
-          </cell>
-          <cell r="C240" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="B241" t="str">
-            <v>input_industry_other_crude_oil_non_energetic_demand</v>
-          </cell>
-          <cell r="C241" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="B242" t="str">
-            <v>input_industry_other_coal_non_energetic_demand</v>
-          </cell>
-          <cell r="C242" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="B243" t="str">
-            <v>input_industry_paper_crude_oil_demand</v>
-          </cell>
-          <cell r="C243" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="B244" t="str">
-            <v>input_industry_paper_coal_demand</v>
-          </cell>
-          <cell r="C244" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="B245" t="str">
-            <v>input_industry_paper_wood_pellets_demand</v>
-          </cell>
-          <cell r="C245" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="B246" t="str">
-            <v>input_industry_chemical_other_steam_hot_water_demand</v>
-          </cell>
-          <cell r="C246" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="B247" t="str">
-            <v>input_industry_food_steam_hot_water_demand</v>
-          </cell>
-          <cell r="C247" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="B248" t="str">
-            <v>input_industry_metal_other_steam_hot_water_demand</v>
-          </cell>
-          <cell r="C248" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="B249" t="str">
-            <v>input_industry_other_steam_hot_water_demand</v>
-          </cell>
-          <cell r="C249" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="B250" t="str">
-            <v>input_industry_paper_steam_hot_water_demand</v>
-          </cell>
-          <cell r="C250" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="B251" t="str">
-            <v>input_industry_food_wood_pellets_demand</v>
-          </cell>
-          <cell r="C251" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="B252" t="str">
-            <v>input_industry_chemical_other_wood_pellets_demand</v>
-          </cell>
-          <cell r="C252" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="B253" t="str">
-            <v>input_industry_chp_combined_cycle_gas_power_fuelmix_electricity_output_conversion</v>
-          </cell>
-          <cell r="C253" t="str">
-            <v>input_industry_chp_combined_cycle_gas_power_fuelmix_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="B254" t="str">
-            <v>input_industry_chp_combined_cycle_gas_power_fuelmix_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C254" t="str">
-            <v>input_industry_chp_combined_cycle_gas_power_fuelmix_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="B255" t="str">
-            <v>input_industry_chp_engine_gas_power_fuelmix_electricity_output_conversion</v>
-          </cell>
-          <cell r="C255" t="str">
-            <v>input_industry_chp_engine_gas_power_fuelmix_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="B256" t="str">
-            <v>input_industry_chp_engine_gas_power_fuelmix_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C256" t="str">
-            <v>input_industry_chp_engine_gas_power_fuelmix_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="B257" t="str">
-            <v>input_industry_chp_turbine_gas_power_fuelmix_electricity_output_conversion</v>
-          </cell>
-          <cell r="C257" t="str">
-            <v>input_industry_chp_turbine_gas_power_fuelmix_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="B258" t="str">
-            <v>input_industry_chp_turbine_gas_power_fuelmix_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C258" t="str">
-            <v>input_industry_chp_turbine_gas_power_fuelmix_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="B259" t="str">
-            <v>input_industry_chp_ultra_supercritical_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C259" t="str">
-            <v>input_industry_chp_ultra_supercritical_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="B260" t="str">
-            <v>input_industry_chp_ultra_supercritical_coal_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C260" t="str">
-            <v>input_industry_chp_ultra_supercritical_coal_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="B261" t="str">
-            <v>input_industry_chp_wood_pellets_electricity_output_conversion</v>
-          </cell>
-          <cell r="C261" t="str">
-            <v>input_industry_chp_wood_pellets_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="B262" t="str">
-            <v>input_industry_chp_wood_pellets_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C262" t="str">
-            <v>input_industry_chp_wood_pellets_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="B263" t="str">
-            <v>input_industry_heat_burner_coal_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C263" t="str">
-            <v>input_industry_heat_burner_coal_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="B264" t="str">
-            <v>input_industry_heat_burner_crude_oil_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C264" t="str">
-            <v>input_industry_heat_burner_crude_oil_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="B265" t="str">
-            <v>input_industry_heat_burner_lignite_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C265" t="str">
-            <v>input_industry_heat_burner_lignite_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="B266" t="str">
-            <v>industry_chp_turbine_hydrogen_demand</v>
-          </cell>
-          <cell r="C266" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="B267" t="str">
-            <v>industry_heat_burner_hydrogen_demand</v>
-          </cell>
-          <cell r="C267" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="B268" t="str">
-            <v>input_industry_chp_turbine_hydrogen_electricity_output_conversion</v>
-          </cell>
-          <cell r="C268" t="str">
-            <v>input_industry_chp_turbine_hydrogen_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="B269" t="str">
-            <v>input_industry_chp_turbine_hydrogen_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C269" t="str">
-            <v>input_industry_chp_turbine_hydrogen_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="B270" t="str">
-            <v>input_industry_heat_burner_hydrogen_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C270" t="str">
-            <v>input_industry_heat_burner_hydrogen_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="B271" t="str">
-            <v>industry_chp_turbine_hydrogen_full_load_hours</v>
-          </cell>
-          <cell r="C271" t="str">
-            <v>industry_chp_turbine_hydrogen_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="B272" t="str">
-            <v>industry_heat_burner_hydrogen_full_load_hours</v>
-          </cell>
-          <cell r="C272" t="str">
-            <v>industry_heat_burner_hydrogen_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="B273" t="str">
-            <v>other_final_demand_electricity_demand</v>
-          </cell>
-          <cell r="C273" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="B274" t="str">
-            <v>other_final_demand_network_gas_demand</v>
-          </cell>
-          <cell r="C274" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="B275" t="str">
-            <v>other_final_demand_wood_pellets_demand</v>
-          </cell>
-          <cell r="C275" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="B276" t="str">
-            <v>other_final_demand_coal_demand</v>
-          </cell>
-          <cell r="C276" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="B277" t="str">
-            <v>other_final_demand_crude_oil_demand</v>
-          </cell>
-          <cell r="C277" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="B278" t="str">
-            <v>other_final_demand_crude_oil_non_energetic_demand</v>
-          </cell>
-          <cell r="C278" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="B279" t="str">
-            <v>energy_power_sector_own_use_electricity_demand</v>
-          </cell>
-          <cell r="C279" t="str">
-            <v>ind_electricity_sbi_d_tj</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="B280" t="str">
-            <v>energy_power_hv_network_loss_demand</v>
-          </cell>
-          <cell r="C280" t="str">
-            <v>electricity_grid_losses</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="B281" t="str">
-            <v>energy_distribution_greengas_demand</v>
-          </cell>
-          <cell r="C281" t="str">
-            <v>green_gas_scaled</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="B282" t="str">
-            <v>input_energy_power_ultra_supercritical_coal_production</v>
-          </cell>
-          <cell r="C282" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="B283" t="str">
-            <v>input_energy_power_supercritical_coal_production</v>
-          </cell>
-          <cell r="C283" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="B284" t="str">
-            <v>input_energy_power_combined_cycle_coal_production</v>
-          </cell>
-          <cell r="C284" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="B285" t="str">
-            <v>input_energy_power_ultra_supercritical_cofiring_coal_production</v>
-          </cell>
-          <cell r="C285" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="B286" t="str">
-            <v>input_energy_power_combined_cycle_ccs_coal_production</v>
-          </cell>
-          <cell r="C286" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="B287" t="str">
-            <v>input_energy_power_ultra_supercritical_ccs_coal_production</v>
-          </cell>
-          <cell r="C287" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="B288" t="str">
-            <v>input_energy_chp_ultra_supercritical_ht_coal_production</v>
-          </cell>
-          <cell r="C288" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="B289" t="str">
-            <v>input_energy_chp_ultra_supercritical_cofiring_ht_coal_production</v>
-          </cell>
-          <cell r="C289" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="B290" t="str">
-            <v>input_energy_power_ultra_supercritical_network_gas_production</v>
-          </cell>
-          <cell r="C290" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="B291" t="str">
-            <v>input_energy_power_turbine_network_gas_production</v>
-          </cell>
-          <cell r="C291" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="B292" t="str">
-            <v>input_energy_power_engine_network_gas_production</v>
-          </cell>
-          <cell r="C292" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="B293" t="str">
-            <v>input_energy_power_combined_cycle_network_gas_production</v>
-          </cell>
-          <cell r="C293" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="B294" t="str">
-            <v>input_energy_power_combined_cycle_ccs_network_gas_production</v>
-          </cell>
-          <cell r="C294" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="B295" t="str">
-            <v>input_energy_chp_combined_cycle_ht_network_gas_production</v>
-          </cell>
-          <cell r="C295" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="B296" t="str">
-            <v>input_energy_power_nuclear_gen2_uranium_oxide_production</v>
-          </cell>
-          <cell r="C296" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="B297" t="str">
-            <v>input_energy_power_nuclear_gen3_uranium_oxide_production</v>
-          </cell>
-          <cell r="C297" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="B298" t="str">
-            <v>input_energy_power_ultra_supercritical_crude_oil_production</v>
-          </cell>
-          <cell r="C298" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="B299" t="str">
-            <v>input_energy_power_engine_diesel_production</v>
-          </cell>
-          <cell r="C299" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="B300" t="str">
-            <v>input_energy_heat_burner_ht_wood_pellets_production</v>
-          </cell>
-          <cell r="C300" t="str">
-            <v>biomass_heater_demand_tj</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="B301" t="str">
-            <v>input_energy_heat_well_deep_ht_geothermal_production</v>
-          </cell>
-          <cell r="C301" t="str">
-            <v>geothermal_heat_tj</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="B302" t="str">
-            <v>input_energy_heat_burner_ht_waste_mix_production</v>
-          </cell>
-          <cell r="C302" t="str">
-            <v>waste_heat_used_in_area_tj</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="B303" t="str">
-            <v>input_energy_heat_burner_ht_network_gas_production</v>
-          </cell>
-          <cell r="C303" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="B304" t="str">
-            <v>input_energy_heat_burner_ht_coal_production</v>
-          </cell>
-          <cell r="C304" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="B305" t="str">
-            <v>input_energy_heat_burner_ht_crude_oil_production</v>
-          </cell>
-          <cell r="C305" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="B306" t="str">
-            <v>input_energy_heat_burner_ht_hydrogen_production</v>
-          </cell>
-          <cell r="C306" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="B307" t="str">
-            <v>input_energy_power_wind_turbine_inland_production</v>
-          </cell>
-          <cell r="C307" t="str">
-            <v>wind_inland_tj</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="B308" t="str">
-            <v>input_energy_power_wind_turbine_coastal_production</v>
-          </cell>
-          <cell r="C308" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="B309" t="str">
-            <v>input_energy_power_wind_turbine_offshore_production</v>
-          </cell>
-          <cell r="C309" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="B310" t="str">
-            <v>input_energy_power_solar_pv_solar_radiation_production</v>
-          </cell>
-          <cell r="C310" t="str">
-            <v>solar_pv_solar_farms_tj</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="B311" t="str">
-            <v>input_energy_power_supercritical_waste_mix_production</v>
-          </cell>
-          <cell r="C311" t="str">
-            <v>waste_total_produced_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="B312" t="str">
-            <v>input_energy_chp_supercritical_ht_waste_mix_production</v>
-          </cell>
-          <cell r="C312" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="B313" t="str">
-            <v>input_energy_power_hydro_river_production</v>
-          </cell>
-          <cell r="C313" t="str">
-            <v>hydro_electricity_tj</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="B314" t="str">
-            <v>input_energy_power_geothermal_production</v>
-          </cell>
-          <cell r="C314" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="B315" t="str">
-            <v>energy_distribution_biogenic_waste_energy_distribution_waste_mix_child_share</v>
-          </cell>
-          <cell r="C315" t="str">
-            <v>biogenic_fraction_waste</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="B316" t="str">
-            <v>energy_distribution_non_biogenic_waste_energy_distribution_waste_mix_child_share</v>
-          </cell>
-          <cell r="C316" t="str">
-            <v>non_biogenic_fraction_waste</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="B317" t="str">
-            <v>input_energy_chp_local_engine_ht_biogas_production</v>
-          </cell>
-          <cell r="C317" t="str">
-            <v>energy_biogas_chp_e_production</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="B318" t="str">
-            <v>input_energy_heat_heatpump_water_water_ht_electricity_production</v>
-          </cell>
-          <cell r="C318" t="str">
-            <v>bd_thermal_storage_tj</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="B319" t="str">
-            <v>input_energy_chp_local_ht_wood_pellets_production</v>
-          </cell>
-          <cell r="C319" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="B320" t="str">
-            <v>input_energy_chp_local_engine_ht_network_gas_production</v>
-          </cell>
-          <cell r="C320" t="str">
-            <v>zero</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="B321" t="str">
-            <v>input_energy_chp_local_engine_network_gas_full_load_hours</v>
-          </cell>
-          <cell r="C321" t="str">
-            <v>energy_chp_local_engine_network_gas_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="B322" t="str">
-            <v>energy_power_combined_cycle_network_gas_full_load_hours</v>
-          </cell>
-          <cell r="C322" t="str">
-            <v>energy_power_combined_cycle_network_gas_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="B323" t="str">
-            <v>energy_power_engine_diesel_full_load_hours</v>
-          </cell>
-          <cell r="C323" t="str">
-            <v>energy_power_engine_diesel_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="B324" t="str">
-            <v>energy_power_hydro_river_full_load_hours</v>
-          </cell>
-          <cell r="C324" t="str">
-            <v>energy_power_hydro_river_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="B325" t="str">
-            <v>energy_power_supercritical_coal_full_load_hours</v>
-          </cell>
-          <cell r="C325" t="str">
-            <v>energy_power_supercritical_coal_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="B326" t="str">
-            <v>energy_power_supercritical_waste_mix_full_load_hours</v>
-          </cell>
-          <cell r="C326" t="str">
-            <v>energy_power_supercritical_waste_mix_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="B327" t="str">
-            <v>energy_power_turbine_network_gas_full_load_hours</v>
-          </cell>
-          <cell r="C327" t="str">
-            <v>energy_power_turbine_network_gas_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="B328" t="str">
-            <v>energy_power_ultra_supercritical_network_gas_full_load_hours</v>
-          </cell>
-          <cell r="C328" t="str">
-            <v>energy_power_ultra_supercritical_network_gas_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="B329" t="str">
-            <v>energy_power_wind_turbine_coastal_full_load_hours</v>
-          </cell>
-          <cell r="C329" t="str">
-            <v>energy_power_wind_turbine_coastal_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="B330" t="str">
-            <v>energy_power_wind_turbine_inland_full_load_hours</v>
-          </cell>
-          <cell r="C330" t="str">
-            <v>energy_power_wind_turbine_inland_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="B331" t="str">
-            <v>energy_power_wind_turbine_offshore_full_load_hours</v>
-          </cell>
-          <cell r="C331" t="str">
-            <v>energy_power_wind_turbine_offshore_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="B332" t="str">
-            <v>input_solar_panels_roofs_and_parks_full_load_hours</v>
-          </cell>
-          <cell r="C332" t="str">
-            <v>input_solar_panels_roofs_and_parks_full_load_hours</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="B333" t="str">
-            <v>input_energy_chp_combined_cycle_network_gas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C333" t="str">
-            <v>input_energy_chp_combined_cycle_network_gas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="B334" t="str">
-            <v>input_energy_chp_combined_cycle_network_gas_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C334" t="str">
-            <v>input_energy_chp_combined_cycle_network_gas_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="B335" t="str">
-            <v>input_energy_chp_local_engine_biogas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C335" t="str">
-            <v>input_energy_chp_local_engine_biogas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="B336" t="str">
-            <v>input_energy_chp_local_engine_biogas_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C336" t="str">
-            <v>input_energy_chp_local_engine_biogas_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="B337" t="str">
-            <v>input_energy_chp_local_engine_network_gas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C337" t="str">
-            <v>input_energy_chp_local_engine_network_gas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="B338" t="str">
-            <v>input_energy_chp_local_engine_network_gas_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C338" t="str">
-            <v>input_energy_chp_local_engine_network_gas_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="B339" t="str">
-            <v>input_energy_chp_local_wood_pellets_electricity_output_conversion</v>
-          </cell>
-          <cell r="C339" t="str">
-            <v>input_energy_chp_local_wood_pellets_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="B340" t="str">
-            <v>input_energy_chp_local_wood_pellets_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C340" t="str">
-            <v>input_energy_chp_local_wood_pellets_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="B341" t="str">
-            <v>input_energy_chp_supercritical_waste_mix_electricity_output_conversion</v>
-          </cell>
-          <cell r="C341" t="str">
-            <v>input_energy_chp_supercritical_waste_mix_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="B342" t="str">
-            <v>input_energy_chp_supercritical_waste_mix_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C342" t="str">
-            <v>input_energy_chp_supercritical_waste_mix_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="B343" t="str">
-            <v>input_energy_chp_ultra_supercritical_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C343" t="str">
-            <v>input_energy_chp_ultra_supercritical_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="B344" t="str">
-            <v>input_energy_chp_ultra_supercritical_coal_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C344" t="str">
-            <v>input_energy_chp_ultra_supercritical_coal_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="B345" t="str">
-            <v>input_energy_chp_ultra_supercritical_cofiring_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C345" t="str">
-            <v>input_energy_chp_ultra_supercritical_cofiring_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="B346" t="str">
-            <v>input_energy_chp_ultra_supercritical_cofiring_coal_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C346" t="str">
-            <v>input_energy_chp_ultra_supercritical_cofiring_coal_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="B347" t="str">
-            <v>input_energy_chp_ultra_supercritical_lignite_electricity_output_conversion</v>
-          </cell>
-          <cell r="C347" t="str">
-            <v>input_energy_chp_ultra_supercritical_lignite_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="B348" t="str">
-            <v>input_energy_chp_ultra_supercritical_lignite_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C348" t="str">
-            <v>input_energy_chp_ultra_supercritical_lignite_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="B349" t="str">
-            <v>input_energy_heat_burner_coal_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C349" t="str">
-            <v>input_energy_heat_burner_coal_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="B350" t="str">
-            <v>input_energy_heat_burner_crude_oil_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C350" t="str">
-            <v>input_energy_heat_burner_crude_oil_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="B351" t="str">
-            <v>input_energy_heat_burner_hydrogen_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C351" t="str">
-            <v>input_energy_heat_burner_hydrogen_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="B352" t="str">
-            <v>input_energy_heat_burner_network_gas_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C352" t="str">
-            <v>input_energy_heat_burner_network_gas_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="B353" t="str">
-            <v>input_energy_heat_burner_waste_mix_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C353" t="str">
-            <v>input_energy_heat_burner_waste_mix_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="B354" t="str">
-            <v>input_energy_heat_burner_wood_pellets_steam_hot_water_output_conversion</v>
-          </cell>
-          <cell r="C354" t="str">
-            <v>input_energy_heat_burner_wood_pellets_steam_hot_water_output_conversion</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="B355" t="str">
-            <v>input_energy_power_combined_cycle_ccs_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C355" t="str">
-            <v>input_energy_power_combined_cycle_ccs_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="B356" t="str">
-            <v>input_energy_power_combined_cycle_ccs_network_gas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C356" t="str">
-            <v>input_energy_power_combined_cycle_ccs_network_gas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="B357" t="str">
-            <v>input_energy_power_combined_cycle_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C357" t="str">
-            <v>input_energy_power_combined_cycle_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="B358" t="str">
-            <v>input_energy_power_combined_cycle_network_gas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C358" t="str">
-            <v>input_energy_power_combined_cycle_network_gas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="B359" t="str">
-            <v>input_energy_power_engine_diesel_electricity_output_conversion</v>
-          </cell>
-          <cell r="C359" t="str">
-            <v>input_energy_power_engine_diesel_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="B360" t="str">
-            <v>input_energy_power_engine_network_gas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C360" t="str">
-            <v>input_energy_power_engine_network_gas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="B361" t="str">
-            <v>input_energy_power_hydro_mountain_production</v>
-          </cell>
-          <cell r="C361" t="str">
-            <v>input_energy_power_hydro_mountain_production</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="B362" t="str">
-            <v>input_energy_power_nuclear_gen2_uranium_oxide_electricity_output_conversion</v>
-          </cell>
-          <cell r="C362" t="str">
-            <v>input_energy_power_nuclear_gen2_uranium_oxide_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="B363" t="str">
-            <v>input_energy_power_nuclear_gen3_uranium_oxide_electricity_output_conversion</v>
-          </cell>
-          <cell r="C363" t="str">
-            <v>input_energy_power_nuclear_gen3_uranium_oxide_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="B364" t="str">
-            <v>input_energy_power_supercritical_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C364" t="str">
-            <v>input_energy_power_supercritical_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="B365" t="str">
-            <v>input_energy_power_supercritical_waste_mix_electricity_output_conversion</v>
-          </cell>
-          <cell r="C365" t="str">
-            <v>input_energy_power_supercritical_waste_mix_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="B366" t="str">
-            <v>input_energy_power_turbine_network_gas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C366" t="str">
-            <v>input_energy_power_turbine_network_gas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="B367" t="str">
-            <v>input_energy_power_ultra_supercritical_ccs_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C367" t="str">
-            <v>input_energy_power_ultra_supercritical_ccs_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="B368" t="str">
-            <v>input_energy_power_ultra_supercritical_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C368" t="str">
-            <v>input_energy_power_ultra_supercritical_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="B369" t="str">
-            <v>input_energy_power_ultra_supercritical_cofiring_coal_electricity_output_conversion</v>
-          </cell>
-          <cell r="C369" t="str">
-            <v>input_energy_power_ultra_supercritical_cofiring_coal_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="B370" t="str">
-            <v>input_energy_power_ultra_supercritical_crude_oil_electricity_output_conversion</v>
-          </cell>
-          <cell r="C370" t="str">
-            <v>input_energy_power_ultra_supercritical_crude_oil_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="B371" t="str">
-            <v>input_energy_power_ultra_supercritical_lignite_electricity_output_conversion</v>
-          </cell>
-          <cell r="C371" t="str">
-            <v>input_energy_power_ultra_supercritical_lignite_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="B372" t="str">
-            <v>input_energy_power_ultra_supercritical_network_gas_electricity_output_conversion</v>
-          </cell>
-          <cell r="C372" t="str">
-            <v>input_energy_power_ultra_supercritical_network_gas_electricity_output_conversion</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="B373" t="str">
-            <v>input_energy_power_ultra_supercritical_oxyfuel_ccs_lignite_electricity_output_conversion</v>
-          </cell>
-          <cell r="C373" t="str">
-            <v>input_energy_power_ultra_supercritical_oxyfuel_ccs_lignite_electricity_output_conversion</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8867,10 +5808,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E619"/>
+  <dimension ref="A1:E621"/>
   <sheetViews>
-    <sheetView topLeftCell="A571" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C584" sqref="C584"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9174,7 +6115,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9229,7 +6170,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9240,7 +6181,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9251,7 +6192,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9262,7 +6203,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9273,7 +6214,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9284,7 +6225,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9295,7 +6236,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9306,7 +6247,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9460,7 +6401,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9471,7 +6412,7 @@
         <v>57</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9482,7 +6423,7 @@
         <v>58</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9493,7 +6434,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9526,7 +6467,7 @@
         <v>62</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9537,7 +6478,7 @@
         <v>63</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9548,7 +6489,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9581,7 +6522,7 @@
         <v>67</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9592,7 +6533,7 @@
         <v>68</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9603,7 +6544,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9614,7 +6555,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9636,7 +6577,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9647,7 +6588,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9658,7 +6599,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9669,7 +6610,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9713,7 +6654,7 @@
         <v>79</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9724,7 +6665,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9735,7 +6676,7 @@
         <v>81</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9746,7 +6687,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9768,7 +6709,7 @@
         <v>84</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9867,7 +6808,7 @@
         <v>93</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9878,7 +6819,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9889,7 +6830,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9900,7 +6841,7 @@
         <v>96</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9911,7 +6852,7 @@
         <v>97</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9922,7 +6863,7 @@
         <v>98</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9933,7 +6874,7 @@
         <v>99</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9944,7 +6885,7 @@
         <v>100</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9955,7 +6896,7 @@
         <v>101</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10054,7 +6995,7 @@
         <v>110</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10065,7 +7006,7 @@
         <v>111</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10076,7 +7017,7 @@
         <v>112</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10087,7 +7028,7 @@
         <v>113</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10098,7 +7039,7 @@
         <v>114</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10482,9 +7423,8 @@
       <c r="B146" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="C146" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B146,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>agri_gas_chp_tj</v>
+      <c r="C146" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -10494,9 +7434,8 @@
       <c r="B147" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="C147" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B147,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>agri_biogas_chp_input_tj</v>
+      <c r="C147" s="15" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -10506,9 +7445,8 @@
       <c r="B148" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="C148" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B148,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C148" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -10518,100 +7456,92 @@
       <c r="B149" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="C149" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B149,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>solar_pv_buildings_tj</v>
+      <c r="C149" s="15" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B150" s="27" t="s">
+      <c r="B150" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="C150" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B150,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C150" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B151" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="C151" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B151,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C151" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="27" t="s">
+      <c r="B152" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="C152" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B152,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C152" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="27" t="s">
+      <c r="B153" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="C153" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B153,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C153" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="B154" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="C154" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B154,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C154" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B155" s="27" t="s">
+      <c r="B155" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="C155" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B155,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C155" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B156" s="27" t="s">
+      <c r="B156" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="C156" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B156,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C156" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B157" s="27" t="s">
+      <c r="B157" s="15" t="s">
         <v>821</v>
       </c>
       <c r="C157" s="15" t="s">
@@ -10622,19 +7552,18 @@
       <c r="A158" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="27" t="s">
+      <c r="B158" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="C158" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B158,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C158" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="15" t="s">
         <v>823</v>
       </c>
       <c r="C159" s="15" t="s">
@@ -10645,7 +7574,7 @@
       <c r="A160" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="27" t="s">
+      <c r="B160" s="15" t="s">
         <v>824</v>
       </c>
       <c r="C160" s="15" t="s">
@@ -10656,7 +7585,7 @@
       <c r="A161" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="27" t="s">
+      <c r="B161" s="15" t="s">
         <v>825</v>
       </c>
       <c r="C161" s="15" t="s">
@@ -10667,7 +7596,7 @@
       <c r="A162" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="27" t="s">
+      <c r="B162" s="15" t="s">
         <v>826</v>
       </c>
       <c r="C162" s="15" t="s">
@@ -10678,7 +7607,7 @@
       <c r="A163" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="27" t="s">
+      <c r="B163" s="15" t="s">
         <v>827</v>
       </c>
       <c r="C163" s="15" t="s">
@@ -10689,79 +7618,73 @@
       <c r="A164" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="27" t="s">
+      <c r="B164" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="C164" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B164,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C164" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="27" t="s">
+      <c r="B165" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="C165" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B165,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C165" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="27" t="s">
+      <c r="B166" s="15" t="s">
         <v>830</v>
       </c>
-      <c r="C166" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B166,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C166" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="B167" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="C167" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B167,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C167" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="27" t="s">
+      <c r="B168" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="C168" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B168,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C168" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B169" s="27" t="s">
+      <c r="B169" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="C169" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B169,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C169" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="27" t="s">
+      <c r="B170" s="15" t="s">
         <v>834</v>
       </c>
       <c r="C170" s="15" t="s">
@@ -10772,19 +7695,18 @@
       <c r="A171" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B171" s="27" t="s">
+      <c r="B171" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="C171" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B171,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C171" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="B172" s="15" t="s">
         <v>836</v>
       </c>
       <c r="C172" s="15" t="s">
@@ -10795,67 +7717,62 @@
       <c r="A173" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="B173" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="C173" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B173,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C173" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="C174" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B174,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C174" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B175" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C175" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B175,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C175" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="B176" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="C176" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B176,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C176" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B177" s="28" t="s">
+      <c r="B177" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="C177" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B177,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>biomass_heater_demand_tj</v>
+      <c r="C177" s="15" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="B178" s="15" t="s">
         <v>842</v>
       </c>
       <c r="C178" s="15" t="s">
@@ -10866,19 +7783,18 @@
       <c r="A179" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B179" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="C179" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B179,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C179" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="B180" s="15" t="s">
         <v>844</v>
       </c>
       <c r="C180" s="15" t="s">
@@ -10889,19 +7805,18 @@
       <c r="A181" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B181" s="27" t="s">
+      <c r="B181" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="C181" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B181,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C181" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B182" s="15" t="s">
         <v>846</v>
       </c>
       <c r="C182" s="15" t="s">
@@ -10912,19 +7827,18 @@
       <c r="A183" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B183" s="29" t="s">
+      <c r="B183" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="C183" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B183,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>bd_thermal_storage_tj</v>
+      <c r="C183" s="15" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="B184" s="15" t="s">
         <v>848</v>
       </c>
       <c r="C184" s="15" t="s">
@@ -10935,7 +7849,7 @@
       <c r="A185" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B185" s="15" t="s">
         <v>849</v>
       </c>
       <c r="C185" s="15" t="s">
@@ -10946,7 +7860,7 @@
       <c r="A186" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="15" t="s">
         <v>850</v>
       </c>
       <c r="C186" s="15" t="s">
@@ -10957,7 +7871,7 @@
       <c r="A187" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="B187" s="15" t="s">
         <v>851</v>
       </c>
       <c r="C187" s="15" t="s">
@@ -10968,7 +7882,7 @@
       <c r="A188" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B188" s="27" t="s">
+      <c r="B188" s="15" t="s">
         <v>852</v>
       </c>
       <c r="C188" s="15" t="s">
@@ -10979,19 +7893,18 @@
       <c r="A189" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B189" s="29" t="s">
+      <c r="B189" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="C189" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B189,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>geothermal_heat_tj</v>
+      <c r="C189" s="15" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="15" t="s">
         <v>854</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -11002,7 +7915,7 @@
       <c r="A191" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="15" t="s">
         <v>855</v>
       </c>
       <c r="C191" s="15" t="s">
@@ -11013,7 +7926,7 @@
       <c r="A192" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="B192" s="15" t="s">
         <v>856</v>
       </c>
       <c r="C192" s="15" t="s">
@@ -11024,19 +7937,18 @@
       <c r="A193" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B193" s="27" t="s">
+      <c r="B193" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="C193" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B193,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C193" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B194" s="27" t="s">
+      <c r="B194" s="15" t="s">
         <v>858</v>
       </c>
       <c r="C194" s="15" t="s">
@@ -11047,7 +7959,7 @@
       <c r="A195" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B195" s="27" t="s">
+      <c r="B195" s="15" t="s">
         <v>859</v>
       </c>
       <c r="C195" s="15" t="s">
@@ -11058,19 +7970,18 @@
       <c r="A196" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="27" t="s">
+      <c r="B196" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="C196" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B196,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C196" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B197" s="27" t="s">
+      <c r="B197" s="15" t="s">
         <v>861</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -11081,7 +7992,7 @@
       <c r="A198" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B198" s="27" t="s">
+      <c r="B198" s="15" t="s">
         <v>862</v>
       </c>
       <c r="C198" s="15" t="s">
@@ -11092,7 +8003,7 @@
       <c r="A199" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B199" s="15" t="s">
         <v>863</v>
       </c>
       <c r="C199" s="15" t="s">
@@ -11103,7 +8014,7 @@
       <c r="A200" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B200" s="27" t="s">
+      <c r="B200" s="15" t="s">
         <v>864</v>
       </c>
       <c r="C200" s="15" t="s">
@@ -11114,19 +8025,18 @@
       <c r="A201" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B201" s="29" t="s">
+      <c r="B201" s="15" t="s">
         <v>865</v>
       </c>
-      <c r="C201" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B201,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>waste_heat_used_in_area_tj</v>
+      <c r="C201" s="15" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B202" s="15" t="s">
         <v>866</v>
       </c>
       <c r="C202" s="15" t="s">
@@ -11137,7 +8047,7 @@
       <c r="A203" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B203" s="27" t="s">
+      <c r="B203" s="15" t="s">
         <v>867</v>
       </c>
       <c r="C203" s="15" t="s">
@@ -11148,7 +8058,7 @@
       <c r="A204" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="27" t="s">
+      <c r="B204" s="15" t="s">
         <v>868</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -11159,7 +8069,7 @@
       <c r="A205" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="15" t="s">
         <v>869</v>
       </c>
       <c r="C205" s="15" t="s">
@@ -11170,55 +8080,51 @@
       <c r="A206" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B206" s="29" t="s">
+      <c r="B206" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="C206" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B206,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>wind_inland_tj</v>
+      <c r="C206" s="15" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="207" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B207" s="27" t="s">
+      <c r="B207" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="C207" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B207,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C207" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="208" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B208" s="27" t="s">
+      <c r="B208" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="C208" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B208,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C208" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="209" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B209" s="28" t="s">
+      <c r="B209" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="C209" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B209,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>solar_pv_solar_farms_tj</v>
+      <c r="C209" s="15" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B210" s="27" t="s">
+      <c r="B210" s="15" t="s">
         <v>874</v>
       </c>
       <c r="C210" s="15" t="s">
@@ -11229,31 +8135,29 @@
       <c r="A211" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B211" s="29" t="s">
+      <c r="B211" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="C211" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B211,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>waste_total_produced_electricity_tj</v>
+      <c r="C211" s="15" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B212" s="27" t="s">
+      <c r="B212" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="C212" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B212,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C212" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B213" s="27" t="s">
+      <c r="B213" s="15" t="s">
         <v>877</v>
       </c>
       <c r="C213" s="15" t="s">
@@ -11264,7 +8168,7 @@
       <c r="A214" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B214" s="27" t="s">
+      <c r="B214" s="15" t="s">
         <v>878</v>
       </c>
       <c r="C214" s="15" t="s">
@@ -11275,19 +8179,18 @@
       <c r="A215" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B215" s="27" t="s">
+      <c r="B215" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="C215" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B215,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C215" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B216" s="27" t="s">
+      <c r="B216" s="15" t="s">
         <v>880</v>
       </c>
       <c r="C216" s="15" t="s">
@@ -11301,16 +8204,15 @@
       <c r="B217" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="C217" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B217,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>energy_biogas_chp_e_production</v>
+      <c r="C217" s="15" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B218" s="27" t="s">
+      <c r="B218" s="15" t="s">
         <v>882</v>
       </c>
       <c r="C218" s="15" t="s">
@@ -11324,9 +8226,8 @@
       <c r="B219" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="C219" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B219,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>hydro_electricity_tj</v>
+      <c r="C219" s="15" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11344,12 +8245,11 @@
       <c r="A221" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B221" s="27" t="s">
+      <c r="B221" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="C221" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B221,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C221" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11359,9 +8259,8 @@
       <c r="B222" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="C222" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B222,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>solar_pv_households_tj</v>
+      <c r="C222" s="15" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11371,9 +8270,8 @@
       <c r="B223" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="C223" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B223,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C223" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11383,9 +8281,8 @@
       <c r="B224" s="15" t="s">
         <v>888</v>
       </c>
-      <c r="C224" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B224,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C224" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="225" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11395,9 +8292,8 @@
       <c r="B225" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="C225" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B225,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C225" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11407,9 +8303,8 @@
       <c r="B226" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="C226" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B226,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C226" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="227" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11430,9 +8325,8 @@
       <c r="B228" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="C228" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B228,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C228" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="229" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11486,9 +8380,8 @@
       <c r="B233" s="15" t="s">
         <v>897</v>
       </c>
-      <c r="C233" s="15" t="str">
-        <f>IFERROR(INDEX('[1]D ETLocal_keys_commits_mapping'!$C:$C,MATCH($B233,'[1]D ETLocal_keys_commits_mapping'!$B:$B,0)),"N/A")</f>
-        <v>zero</v>
+      <c r="C233" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -11496,7 +8389,7 @@
         <v>116</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C234" s="9" t="str">
         <f>"mq_" &amp; B234</f>
@@ -12230,8 +9123,8 @@
       <c r="B295" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C295" s="34" t="s">
-        <v>1358</v>
+      <c r="C295" s="31" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -12241,8 +9134,8 @@
       <c r="B296" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C296" s="34" t="s">
-        <v>1359</v>
+      <c r="C296" s="31" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -12252,8 +9145,8 @@
       <c r="B297" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C297" s="34" t="s">
-        <v>1360</v>
+      <c r="C297" s="31" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -12263,8 +9156,8 @@
       <c r="B298" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C298" s="34" t="s">
-        <v>1361</v>
+      <c r="C298" s="31" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -12274,8 +9167,8 @@
       <c r="B299" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C299" s="34" t="s">
-        <v>1362</v>
+      <c r="C299" s="31" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -12304,11 +9197,11 @@
       <c r="A302" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B302" s="33" t="s">
+      <c r="B302" s="30" t="s">
         <v>988</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -13039,7 +9932,7 @@
         <v>1049</v>
       </c>
       <c r="C363" s="20" t="str">
-        <f t="shared" ref="C363:C426" si="2">"mq_" &amp; B363</f>
+        <f t="shared" ref="C363:C424" si="2">"mq_" &amp; B363</f>
         <v>mq_input_agriculture_chp_wood_pellets_steam_hot_water_output_conversion</v>
       </c>
     </row>
@@ -13652,7 +10545,7 @@
       </c>
       <c r="C414" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_input_solar_panels_roofs_and_parks_full_load_hours</v>
+        <v>mq_energy_power_geothermal_full_load_hours</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -13664,7 +10557,7 @@
       </c>
       <c r="C415" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_energy_power_geothermal_full_load_hours</v>
+        <v>mq_energy_power_hydro_mountain_full_load_hours</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -13676,7 +10569,7 @@
       </c>
       <c r="C416" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_energy_power_hydro_mountain_full_load_hours</v>
+        <v>mq_energy_power_hydro_river_full_load_hours</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -13688,7 +10581,7 @@
       </c>
       <c r="C417" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_energy_power_hydro_river_full_load_hours</v>
+        <v>mq_energy_power_supercritical_waste_mix_full_load_hours</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -13700,7 +10593,7 @@
       </c>
       <c r="C418" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_energy_power_supercritical_waste_mix_full_load_hours</v>
+        <v>mq_energy_power_supercritical_ccs_waste_mix_full_load_hours</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -13712,7 +10605,7 @@
       </c>
       <c r="C419" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_energy_power_supercritical_ccs_waste_mix_full_load_hours</v>
+        <v>mq_energy_chp_coal_gas_full_load_hours</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -13724,7 +10617,7 @@
       </c>
       <c r="C420" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_flh_solar_pv_solar_radiation_max</v>
+        <v>mq_industry_chp_turbine_gas_power_fuelmix_full_load_hours</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -13736,7 +10629,7 @@
       </c>
       <c r="C421" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_energy_chp_coal_gas_full_load_hours</v>
+        <v>mq_industry_chp_combined_cycle_gas_power_fuelmix_full_load_hours</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -13748,7 +10641,7 @@
       </c>
       <c r="C422" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_industry_chp_turbine_gas_power_fuelmix_full_load_hours</v>
+        <v>mq_industry_chp_engine_gas_power_fuelmix_full_load_hours</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -13760,7 +10653,7 @@
       </c>
       <c r="C423" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_industry_chp_combined_cycle_gas_power_fuelmix_full_load_hours</v>
+        <v>mq_agriculture_chp_engine_network_gas_dispatchable_full_load_hours</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -13772,7 +10665,7 @@
       </c>
       <c r="C424" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>mq_industry_chp_engine_gas_power_fuelmix_full_load_hours</v>
+        <v>mq_input_energy_chp_local_engine_network_gas_full_load_hours</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -13783,8 +10676,8 @@
         <v>1101</v>
       </c>
       <c r="C425" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>mq_agriculture_chp_engine_network_gas_dispatchable_full_load_hours</v>
+        <f t="shared" ref="C425:C492" si="3">"mq_" &amp; B425</f>
+        <v>mq_input_energy_chp_combined_cycle_network_gas_full_load_hours</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -13795,8 +10688,8 @@
         <v>1102</v>
       </c>
       <c r="C426" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>mq_input_energy_chp_local_engine_network_gas_full_load_hours</v>
+        <f t="shared" si="3"/>
+        <v>mq_input_energy_chp_ultra_supercritical_cofiring_coal_full_load_hours</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -13807,8 +10700,8 @@
         <v>1103</v>
       </c>
       <c r="C427" s="23" t="str">
-        <f t="shared" ref="C427:C490" si="3">"mq_" &amp; B427</f>
-        <v>mq_input_energy_chp_combined_cycle_network_gas_full_load_hours</v>
+        <f t="shared" si="3"/>
+        <v>mq_input_energy_chp_ultra_supercritical_coal_full_load_hours</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -13820,7 +10713,7 @@
       </c>
       <c r="C428" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_chp_ultra_supercritical_cofiring_coal_full_load_hours</v>
+        <v>mq_input_energy_chp_ultra_supercritical_lignite_full_load_hours</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -13832,7 +10725,7 @@
       </c>
       <c r="C429" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_chp_ultra_supercritical_coal_full_load_hours</v>
+        <v>mq_industry_chp_ultra_supercritical_coal_full_load_hours</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -13844,7 +10737,7 @@
       </c>
       <c r="C430" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_chp_ultra_supercritical_lignite_full_load_hours</v>
+        <v>mq_input_energy_chp_local_wood_pellets_full_load_hours</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -13856,7 +10749,7 @@
       </c>
       <c r="C431" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_industry_chp_ultra_supercritical_coal_full_load_hours</v>
+        <v>mq_industry_chp_wood_pellets_full_load_hours</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -13868,7 +10761,7 @@
       </c>
       <c r="C432" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_chp_local_wood_pellets_full_load_hours</v>
+        <v>mq_agriculture_chp_wood_pellets_full_load_hours</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -13880,7 +10773,7 @@
       </c>
       <c r="C433" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_industry_chp_wood_pellets_full_load_hours</v>
+        <v>mq_input_energy_chp_local_engine_biogas_full_load_hours</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -13892,7 +10785,7 @@
       </c>
       <c r="C434" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_agriculture_chp_wood_pellets_full_load_hours</v>
+        <v>mq_agriculture_chp_engine_biogas_full_load_hours</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -13904,7 +10797,7 @@
       </c>
       <c r="C435" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_chp_local_engine_biogas_full_load_hours</v>
+        <v>mq_input_energy_chp_supercritical_waste_mix_full_load_hours</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -13916,7 +10809,7 @@
       </c>
       <c r="C436" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_agriculture_chp_engine_biogas_full_load_hours</v>
+        <v>mq_industry_chp_turbine_hydrogen_full_load_hours</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -13928,7 +10821,7 @@
       </c>
       <c r="C437" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_chp_supercritical_waste_mix_full_load_hours</v>
+        <v>mq_input_energy_heat_burner_coal_full_load_hours</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -13940,7 +10833,7 @@
       </c>
       <c r="C438" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_industry_chp_turbine_hydrogen_full_load_hours</v>
+        <v>mq_industry_heat_burner_coal_full_load_hours</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -13952,7 +10845,7 @@
       </c>
       <c r="C439" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_heat_burner_coal_full_load_hours</v>
+        <v>mq_industry_heat_burner_crude_oil_full_load_hours</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -13964,7 +10857,7 @@
       </c>
       <c r="C440" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_industry_heat_burner_coal_full_load_hours</v>
+        <v>mq_input_energy_heat_burner_crude_oil_full_load_hours</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -13976,7 +10869,7 @@
       </c>
       <c r="C441" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_industry_heat_burner_crude_oil_full_load_hours</v>
+        <v>mq_input_energy_heat_burner_network_gas_full_load_hours</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -13988,7 +10881,7 @@
       </c>
       <c r="C442" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_heat_burner_crude_oil_full_load_hours</v>
+        <v>mq_industry_heat_burner_lignite_full_load_hours</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -14000,7 +10893,7 @@
       </c>
       <c r="C443" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_heat_burner_network_gas_full_load_hours</v>
+        <v>mq_input_energy_heat_burner_wood_pellets_full_load_hours</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -14008,11 +10901,11 @@
         <v>14</v>
       </c>
       <c r="B444" s="23" t="s">
-        <v>1120</v>
+        <v>1429</v>
       </c>
       <c r="C444" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_industry_heat_burner_lignite_full_load_hours</v>
+        <v>mq_input_solar_pv_on_roof_households_full_load_hours</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -14020,11 +10913,11 @@
         <v>14</v>
       </c>
       <c r="B445" s="23" t="s">
-        <v>1121</v>
+        <v>1430</v>
       </c>
       <c r="C445" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_heat_burner_wood_pellets_full_load_hours</v>
+        <v>mq_input_solar_pv_on_roof_buildings_full_load_hours</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -14032,11 +10925,11 @@
         <v>14</v>
       </c>
       <c r="B446" s="23" t="s">
-        <v>1122</v>
+        <v>1431</v>
       </c>
       <c r="C446" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_heat_solar_solar_thermal_full_load_hours</v>
+        <v>mq_input_solar_pv_on_land_full_load_hours</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -14044,11 +10937,11 @@
         <v>14</v>
       </c>
       <c r="B447" s="23" t="s">
-        <v>1123</v>
+        <v>1432</v>
       </c>
       <c r="C447" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_heat_burner_waste_mix_full_load_hours</v>
+        <v>mq_input_solar_csp_full_load_hours</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -14056,11 +10949,11 @@
         <v>14</v>
       </c>
       <c r="B448" s="23" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C448" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_energy_heat_heatpump_water_water_electricity_full_load_hours</v>
+        <v>mq_input_energy_heat_solar_solar_thermal_full_load_hours</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -14068,35 +10961,35 @@
         <v>14</v>
       </c>
       <c r="B449" s="23" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C449" s="23" t="str">
         <f t="shared" si="3"/>
+        <v>mq_input_energy_heat_burner_waste_mix_full_load_hours</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B450" s="23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C450" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>mq_input_energy_heat_heatpump_water_water_electricity_full_load_hours</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B451" s="23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C451" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>mq_industry_heat_burner_hydrogen_full_load_hours</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B450" s="25" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C450" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>mq_lv_net_spare_capacity</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B451" s="25" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C451" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>mq_mv_net_spare_capacity</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -14104,11 +10997,11 @@
         <v>192</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C452" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_hv_net_spare_capacity</v>
+        <v>mq_lv_net_spare_capacity</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -14116,11 +11009,11 @@
         <v>192</v>
       </c>
       <c r="B453" s="25" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C453" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_lv_mv_trafo_spare_capacity</v>
+        <v>mq_mv_net_spare_capacity</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -14128,11 +11021,11 @@
         <v>192</v>
       </c>
       <c r="B454" s="25" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C454" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_mv_hv_trafo_spare_capacity</v>
+        <v>mq_hv_net_spare_capacity</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -14140,11 +11033,11 @@
         <v>192</v>
       </c>
       <c r="B455" s="25" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C455" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_lv_net_capacity_per_step</v>
+        <v>mq_lv_mv_trafo_spare_capacity</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -14152,11 +11045,11 @@
         <v>192</v>
       </c>
       <c r="B456" s="25" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C456" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_lv_net_costs_per_capacity_step</v>
+        <v>mq_mv_hv_trafo_spare_capacity</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -14164,11 +11057,11 @@
         <v>192</v>
       </c>
       <c r="B457" s="25" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C457" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_mv_net_capacity_per_step</v>
+        <v>mq_lv_net_capacity_per_step</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -14176,11 +11069,11 @@
         <v>192</v>
       </c>
       <c r="B458" s="25" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C458" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_mv_net_costs_per_capacity_step</v>
+        <v>mq_lv_net_costs_per_capacity_step</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -14188,11 +11081,11 @@
         <v>192</v>
       </c>
       <c r="B459" s="25" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C459" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_hv_net_capacity_per_step</v>
+        <v>mq_mv_net_capacity_per_step</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -14200,11 +11093,11 @@
         <v>192</v>
       </c>
       <c r="B460" s="25" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C460" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_hv_net_costs_per_capacity_step</v>
+        <v>mq_mv_net_costs_per_capacity_step</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -14212,11 +11105,11 @@
         <v>192</v>
       </c>
       <c r="B461" s="25" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C461" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_lv_mv_trafo_capacity_per_step</v>
+        <v>mq_hv_net_capacity_per_step</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -14224,11 +11117,11 @@
         <v>192</v>
       </c>
       <c r="B462" s="25" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="C462" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_lv_mv_trafo_costs_per_capacity_step</v>
+        <v>mq_hv_net_costs_per_capacity_step</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -14236,11 +11129,11 @@
         <v>192</v>
       </c>
       <c r="B463" s="25" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C463" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_mv_hv_trafo_capacity_per_step</v>
+        <v>mq_lv_mv_trafo_capacity_per_step</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -14248,11 +11141,11 @@
         <v>192</v>
       </c>
       <c r="B464" s="25" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C464" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_mv_hv_trafo_costs_per_capacity_step</v>
+        <v>mq_lv_mv_trafo_costs_per_capacity_step</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -14260,11 +11153,11 @@
         <v>192</v>
       </c>
       <c r="B465" s="25" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C465" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_first_bracket</v>
+        <v>mq_mv_hv_trafo_capacity_per_step</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -14272,11 +11165,11 @@
         <v>192</v>
       </c>
       <c r="B466" s="25" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C466" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_second_bracket</v>
+        <v>mq_mv_hv_trafo_costs_per_capacity_step</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -14284,11 +11177,11 @@
         <v>192</v>
       </c>
       <c r="B467" s="25" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C467" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_third_bracket</v>
+        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_first_bracket</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -14296,11 +11189,11 @@
         <v>192</v>
       </c>
       <c r="B468" s="25" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C468" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_fourth_bracket</v>
+        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_second_bracket</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -14308,11 +11201,11 @@
         <v>192</v>
       </c>
       <c r="B469" s="25" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C469" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_fifth_bracket</v>
+        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_third_bracket</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -14320,11 +11213,11 @@
         <v>192</v>
       </c>
       <c r="B470" s="25" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C470" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_first_bracket</v>
+        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_fourth_bracket</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -14332,11 +11225,11 @@
         <v>192</v>
       </c>
       <c r="B471" s="25" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C471" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_second_bracket</v>
+        <v>mq_heat_length_of_distribution_pipelines_in_meter_per_residence_object_fifth_bracket</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -14344,11 +11237,11 @@
         <v>192</v>
       </c>
       <c r="B472" s="25" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C472" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_third_bracket</v>
+        <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_first_bracket</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -14356,11 +11249,11 @@
         <v>192</v>
       </c>
       <c r="B473" s="25" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C473" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_fourth_bracket</v>
+        <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_second_bracket</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -14368,35 +11261,35 @@
         <v>192</v>
       </c>
       <c r="B474" s="25" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C474" s="25" t="str">
         <f t="shared" si="3"/>
+        <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_third_bracket</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B475" s="25" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C475" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_fourth_bracket</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B476" s="25" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C476" s="25" t="str">
+        <f t="shared" si="3"/>
         <v>mq_heat_length_of_connection_pipelines_in_meter_per_residence_fifth_bracket</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B475" s="9" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C475" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_diesel_buildings_final_demand_crude_oil</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B476" s="9" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C476" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_biodiesel_buildings_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -14404,11 +11297,11 @@
         <v>6</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C477" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_kerosene_buildings_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_diesel_buildings_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -14416,11 +11309,11 @@
         <v>6</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C478" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_bio_kerosene_buildings_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_biodiesel_buildings_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -14428,11 +11321,11 @@
         <v>6</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C479" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_lpg_buildings_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_kerosene_buildings_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -14440,11 +11333,11 @@
         <v>6</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C480" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_bio_oil_buildings_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_bio_kerosene_buildings_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -14452,35 +11345,35 @@
         <v>6</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C481" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_crude_oil_buildings_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_lpg_buildings_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C482" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_energy_greengas_gasification_dry_biomass_energy_greengas_production_child_share</v>
+        <v>mq_input_percentage_of_bio_oil_buildings_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C483" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_energy_greengas_gasification_wet_biomass_energy_greengas_production_child_share</v>
+        <v>mq_input_percentage_of_crude_oil_buildings_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -14488,11 +11381,11 @@
         <v>14</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C484" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_energy_greengas_upgrade_biogas_energy_greengas_production_child_share</v>
+        <v>mq_energy_greengas_gasification_dry_biomass_energy_greengas_production_child_share</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -14500,11 +11393,11 @@
         <v>14</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C485" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_energy_distribution_biogenic_waste_energy_distribution_waste_mix_child_share</v>
+        <v>mq_energy_greengas_gasification_wet_biomass_energy_greengas_production_child_share</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -14512,35 +11405,35 @@
         <v>14</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C486" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_energy_distribution_non_biogenic_waste_energy_distribution_waste_mix_child_share</v>
+        <v>mq_energy_greengas_upgrade_biogas_energy_greengas_production_child_share</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C487" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_diesel_households_final_demand_crude_oil</v>
+        <v>mq_energy_distribution_biogenic_waste_energy_distribution_waste_mix_child_share</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C488" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_biodiesel_households_final_demand_crude_oil</v>
+        <v>mq_energy_distribution_non_biogenic_waste_energy_distribution_waste_mix_child_share</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -14548,11 +11441,11 @@
         <v>20</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C489" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_kerosene_households_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_diesel_households_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -14560,11 +11453,11 @@
         <v>20</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C490" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>mq_input_percentage_of_bio_kerosene_households_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_biodiesel_households_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -14572,11 +11465,11 @@
         <v>20</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C491" s="9" t="str">
-        <f t="shared" ref="C491:C502" si="4">"mq_" &amp; B491</f>
-        <v>mq_input_percentage_of_lpg_households_final_demand_crude_oil</v>
+        <f t="shared" si="3"/>
+        <v>mq_input_percentage_of_kerosene_households_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -14584,11 +11477,11 @@
         <v>20</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C492" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>mq_input_percentage_of_bio_oil_households_final_demand_crude_oil</v>
+        <f t="shared" si="3"/>
+        <v>mq_input_percentage_of_bio_kerosene_households_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -14596,1054 +11489,1054 @@
         <v>20</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C493" s="9" t="str">
+        <f t="shared" ref="C493:C504" si="4">"mq_" &amp; B493</f>
+        <v>mq_input_percentage_of_lpg_households_final_demand_crude_oil</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B494" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C494" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>mq_input_percentage_of_bio_oil_households_final_demand_crude_oil</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B495" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C495" s="9" t="str">
         <f t="shared" si="4"/>
         <v>mq_input_percentage_of_crude_oil_households_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B494" s="9" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C494" s="9" t="str">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B496" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C496" s="9" t="str">
         <f t="shared" si="4"/>
         <v>mq_input_percentage_of_diesel_industry_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B495" s="9" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C495" s="9" t="str">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C497" s="9" t="str">
         <f t="shared" si="4"/>
         <v>mq_input_percentage_of_biodiesel_industry_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B496" s="9" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C496" s="9" t="str">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B498" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C498" s="9" t="str">
         <f t="shared" si="4"/>
         <v>mq_input_percentage_of_kerosene_industry_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B497" s="9" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C497" s="9" t="str">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B499" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C499" s="9" t="str">
         <f t="shared" si="4"/>
         <v>mq_input_percentage_of_bio_kerosene_industry_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B498" s="9" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C498" s="9" t="str">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B500" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C500" s="9" t="str">
         <f t="shared" si="4"/>
         <v>mq_input_percentage_of_lpg_industry_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B499" s="9" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C499" s="9" t="str">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B501" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C501" s="9" t="str">
         <f t="shared" si="4"/>
         <v>mq_input_percentage_of_bio_oil_industry_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B500" s="9" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C500" s="9" t="str">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B502" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C502" s="9" t="str">
         <f t="shared" si="4"/>
         <v>mq_input_percentage_of_crude_oil_industry_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" s="24" t="s">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B501" s="16" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C501" s="16" t="str">
+      <c r="B503" s="16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C503" s="16" t="str">
         <f t="shared" si="4"/>
         <v>mq_co2_emission_1990_aviation_bunkers</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" s="24" t="s">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B502" s="16" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C502" s="16" t="str">
+      <c r="B504" s="16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C504" s="16" t="str">
         <f t="shared" si="4"/>
         <v>mq_co2_emission_1990_marine_bunkers</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" s="30" t="s">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B503" s="31" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C503" s="31" t="str">
-        <f t="shared" ref="C503:C529" si="5">"mq_" &amp; B503</f>
+      <c r="B505" s="28" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C505" s="28" t="str">
+        <f t="shared" ref="C505:C531" si="5">"mq_" &amp; B505</f>
         <v>mq_buildings_final_demand_electricity_buildings_final_demand_for_lighting_electricity_parent_share</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" s="30" t="s">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B504" s="31" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C504" s="31" t="str">
+      <c r="B506" s="28" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C506" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_electricity_buildings_final_demand_for_space_heating_electricity_parent_share</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" s="30" t="s">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B505" s="31" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C505" s="31" t="str">
+      <c r="B507" s="28" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C507" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_electricity_buildings_final_demand_for_appliances_electricity_parent_share</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" s="30" t="s">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B506" s="31" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C506" s="31" t="str">
+      <c r="B508" s="28" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C508" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_electricity_buildings_final_demand_for_cooling_electricity_parent_share</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507" s="30" t="s">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B507" s="31" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C507" s="31" t="str">
+      <c r="B509" s="28" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C509" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_network_gas_buildings_final_demand_for_appliances_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508" s="30" t="s">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B508" s="31" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C508" s="31" t="str">
+      <c r="B510" s="28" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C510" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_network_gas_buildings_final_demand_for_space_heating_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" s="30" t="s">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B509" s="31" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C509" s="31" t="str">
+      <c r="B511" s="28" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C511" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_network_gas_buildings_final_demand_for_cooling_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" s="30" t="s">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B510" s="31" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C510" s="31" t="str">
+      <c r="B512" s="28" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C512" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_wood_pellets_buildings_final_demand_for_space_heating_wood_pellets_parent_share</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511" s="30" t="s">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B511" s="31" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C511" s="31" t="str">
+      <c r="B513" s="28" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C513" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_wood_pellets_buildings_final_demand_for_appliances_wood_pellets_parent_share</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" s="30" t="s">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B512" s="31" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C512" s="31" t="str">
+      <c r="B514" s="28" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C514" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_coal_buildings_final_demand_for_space_heating_coal_parent_share</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" s="30" t="s">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B513" s="31" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C513" s="31" t="str">
+      <c r="B515" s="28" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C515" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_coal_buildings_final_demand_for_appliances_coal_parent_share</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514" s="30" t="s">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B514" s="31" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C514" s="31" t="str">
+      <c r="B516" s="28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C516" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_crude_oil_buildings_final_demand_for_space_heating_crude_oil_parent_share</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" s="30" t="s">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B515" s="31" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C515" s="31" t="str">
+      <c r="B517" s="28" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C517" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_crude_oil_buildings_final_demand_for_appliances_crude_oil_parent_share</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" s="30" t="s">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B516" s="31" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C516" s="31" t="str">
+      <c r="B518" s="28" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C518" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_space_heating_network_gas_buildings_space_heater_heatpump_air_water_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517" s="30" t="s">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B517" s="31" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C517" s="31" t="str">
+      <c r="B519" s="28" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C519" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_space_heating_network_gas_buildings_space_heater_hybrid_heatpump_air_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" s="30" t="s">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B518" s="31" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C518" s="31" t="str">
+      <c r="B520" s="28" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C520" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_space_heating_network_gas_buildings_space_heater_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" s="30" t="s">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B519" s="31" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C519" s="31" t="str">
+      <c r="B521" s="28" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C521" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_space_heating_electricity_buildings_space_heater_collective_heatpump_water_water_ts_electricity_parent_share</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520" s="30" t="s">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B520" s="31" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C520" s="31" t="str">
+      <c r="B522" s="28" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C522" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_space_heating_electricity_buildings_space_heater_heatpump_air_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521" s="30" t="s">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B521" s="31" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C521" s="31" t="str">
+      <c r="B523" s="28" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C523" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_space_heating_electricity_buildings_space_heater_hybrid_heatpump_air_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522" s="30" t="s">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B522" s="31" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C522" s="31" t="str">
+      <c r="B524" s="28" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C524" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_space_heating_electricity_buildings_space_heater_electricity_parent_share</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523" s="30" t="s">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B523" s="31" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C523" s="31" t="str">
+      <c r="B525" s="28" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C525" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_lighting_electricity_buildings_lighting_efficient_fluorescent_electricity_parent_share</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524" s="30" t="s">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B524" s="31" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C524" s="31" t="str">
+      <c r="B526" s="28" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C526" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_lighting_electricity_buildings_lighting_standard_fluorescent_electricity_parent_share</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525" s="30" t="s">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B525" s="31" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C525" s="31" t="str">
+      <c r="B527" s="28" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C527" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_lighting_electricity_buildings_lighting_led_electricity_parent_share</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" s="30" t="s">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B526" s="31" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C526" s="31" t="str">
+      <c r="B528" s="28" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C528" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_cooling_electricity_buildings_cooling_airconditioning_electricity_parent_share</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" s="30" t="s">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B527" s="31" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C527" s="31" t="str">
+      <c r="B529" s="28" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C529" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_cooling_electricity_buildings_cooling_heatpump_air_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" s="30" t="s">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B528" s="31" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C528" s="31" t="str">
+      <c r="B530" s="28" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C530" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_buildings_final_demand_for_cooling_electricity_buildings_cooling_collective_heatpump_water_water_ts_electricity_parent_share</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529" s="30" t="s">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B529" s="31" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C529" s="31" t="str">
+      <c r="B531" s="28" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C531" s="28" t="str">
         <f t="shared" si="5"/>
         <v>mq_households_final_demand_electricity_households_final_demand_for_cooking_electricity_parent_share</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530" s="30" t="s">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B530" s="31" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C530" s="31" t="str">
-        <f t="shared" ref="C530:C578" si="6">"mq_" &amp; B530</f>
+      <c r="B532" s="28" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C532" s="28" t="str">
+        <f t="shared" ref="C532:C580" si="6">"mq_" &amp; B532</f>
         <v>mq_households_final_demand_electricity_households_final_demand_for_cooling_electricity_parent_share</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531" s="30" t="s">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B531" s="31" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C531" s="31" t="str">
+      <c r="B533" s="28" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C533" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_electricity_households_final_demand_for_hot_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532" s="30" t="s">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B532" s="31" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C532" s="31" t="str">
+      <c r="B534" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C534" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_electricity_households_final_demand_for_lighting_electricity_parent_share</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533" s="30" t="s">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B533" s="31" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C533" s="31" t="str">
+      <c r="B535" s="28" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C535" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_electricity_households_final_demand_for_space_heating_electricity_parent_share</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534" s="30" t="s">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B534" s="31" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C534" s="31" t="str">
+      <c r="B536" s="28" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C536" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_electricity_households_final_demand_for_appliances_electricity_parent_share</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535" s="30" t="s">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B535" s="31" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C535" s="31" t="str">
+      <c r="B537" s="28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C537" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_network_gas_households_final_demand_for_cooking_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536" s="30" t="s">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B536" s="31" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C536" s="31" t="str">
+      <c r="B538" s="28" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C538" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_network_gas_households_final_demand_for_hot_water_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537" s="30" t="s">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B537" s="31" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C537" s="31" t="str">
+      <c r="B539" s="28" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C539" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_network_gas_households_final_demand_for_space_heating_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538" s="30" t="s">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B538" s="31" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C538" s="31" t="str">
+      <c r="B540" s="28" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C540" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_network_gas_households_final_demand_for_cooling_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539" s="30" t="s">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B539" s="31" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C539" s="31" t="str">
+      <c r="B541" s="28" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C541" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_input_households_final_demand_steam_hot_water_households_final_demand_for_hot_water_steam_hot_water_parent_share</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540" s="30" t="s">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B540" s="31" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C540" s="31" t="str">
+      <c r="B542" s="28" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C542" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_input_households_final_demand_steam_hot_water_households_final_demand_for_space_heating_steam_hot_water_parent_share</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541" s="30" t="s">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B541" s="31" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C541" s="31" t="str">
+      <c r="B543" s="28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C543" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_wood_pellets_households_final_demand_for_hot_water_wood_pellets_parent_share</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542" s="30" t="s">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B542" s="31" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C542" s="31" t="str">
+      <c r="B544" s="28" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C544" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_wood_pellets_households_final_demand_for_space_heating_wood_pellets_parent_share</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543" s="30" t="s">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B543" s="31" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C543" s="31" t="str">
+      <c r="B545" s="28" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C545" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_wood_pellets_households_final_demand_for_cooking_wood_pellets_parent_share</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544" s="30" t="s">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B544" s="31" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C544" s="31" t="str">
+      <c r="B546" s="28" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C546" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_crude_oil_households_final_demand_for_space_heating_crude_oil_parent_share</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545" s="30" t="s">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B545" s="31" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C545" s="31" t="str">
+      <c r="B547" s="28" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C547" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_crude_oil_households_final_demand_for_hot_water_crude_oil_parent_share</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546" s="30" t="s">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B546" s="31" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C546" s="31" t="str">
+      <c r="B548" s="28" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C548" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_coal_households_final_demand_for_space_heating_coal_parent_share</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547" s="30" t="s">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B547" s="31" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C547" s="31" t="str">
+      <c r="B549" s="28" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C549" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_coal_households_final_demand_for_hot_water_coal_parent_share</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548" s="30" t="s">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B548" s="31" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C548" s="31" t="str">
+      <c r="B550" s="28" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C550" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_space_heating_network_gas_households_space_heater_combined_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549" s="30" t="s">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B549" s="31" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C549" s="31" t="str">
+      <c r="B551" s="28" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C551" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_space_heating_network_gas_households_space_heater_network_gas_parent_share</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550" s="30" t="s">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B550" s="31" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C550" s="31" t="str">
+      <c r="B552" s="28" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C552" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_space_heating_network_gas_households_space_heater_hybrid_heatpump_air_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551" s="30" t="s">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B551" s="31" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C551" s="31" t="str">
+      <c r="B553" s="28" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C553" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_space_heating_electricity_households_space_heater_electricity_parent_share</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552" s="30" t="s">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B552" s="31" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C552" s="31" t="str">
+      <c r="B554" s="28" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C554" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_space_heating_electricity_households_space_heater_heatpump_air_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553" s="30" t="s">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B553" s="31" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C553" s="31" t="str">
+      <c r="B555" s="28" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C555" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_space_heating_electricity_households_space_heater_hybrid_heatpump_air_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554" s="30" t="s">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B554" s="31" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C554" s="31" t="str">
+      <c r="B556" s="28" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C556" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_space_heating_electricity_households_space_heater_heatpump_ground_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555" s="30" t="s">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B555" s="31" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C555" s="31" t="str">
+      <c r="B557" s="28" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C557" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_cooking_electricity_households_cooker_halogen_electricity_parent_share</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556" s="30" t="s">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B556" s="31" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C556" s="31" t="str">
+      <c r="B558" s="28" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C558" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_cooking_electricity_households_cooker_induction_electricity_parent_share</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557" s="30" t="s">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B557" s="31" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C557" s="31" t="str">
+      <c r="B559" s="28" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C559" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_cooking_electricity_households_cooker_resistive_electricity_parent_share</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558" s="30" t="s">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B558" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C558" s="31" t="str">
+      <c r="B560" s="28" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C560" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_lighting_electricity_households_lighting_incandescent_electricity_parent_share</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559" s="30" t="s">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B559" s="31" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C559" s="31" t="str">
+      <c r="B561" s="28" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C561" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_lighting_electricity_households_lighting_efficient_fluorescent_electricity_parent_share</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A560" s="30" t="s">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B560" s="31" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C560" s="31" t="str">
+      <c r="B562" s="28" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C562" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_lighting_electricity_households_lighting_led_electricity_parent_share</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561" s="30" t="s">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B561" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C561" s="31" t="str">
+      <c r="B563" s="28" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C563" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_appliances_electricity_households_appliances_clothes_dryer_electricity_parent_share</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" s="30" t="s">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B562" s="31" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C562" s="31" t="str">
+      <c r="B564" s="28" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C564" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_appliances_electricity_households_appliances_computer_media_electricity_parent_share</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" s="30" t="s">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B563" s="31" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C563" s="31" t="str">
+      <c r="B565" s="28" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C565" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_appliances_electricity_households_appliances_dishwasher_electricity_parent_share</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564" s="30" t="s">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B564" s="31" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C564" s="31" t="str">
+      <c r="B566" s="28" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C566" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_appliances_electricity_households_appliances_fridge_freezer_electricity_parent_share</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565" s="30" t="s">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B565" s="31" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C565" s="31" t="str">
+      <c r="B567" s="28" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C567" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_appliances_electricity_households_appliances_other_electricity_parent_share</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" s="30" t="s">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B566" s="31" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C566" s="31" t="str">
+      <c r="B568" s="28" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C568" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_appliances_electricity_households_appliances_television_electricity_parent_share</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" s="30" t="s">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B567" s="31" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C567" s="31" t="str">
+      <c r="B569" s="28" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C569" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_appliances_electricity_households_appliances_vacuum_cleaner_electricity_parent_share</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" s="30" t="s">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B568" s="31" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C568" s="31" t="str">
+      <c r="B570" s="28" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C570" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_appliances_electricity_households_appliances_washing_machine_electricity_parent_share</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" s="30" t="s">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B569" s="31" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C569" s="31" t="str">
+      <c r="B571" s="28" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C571" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_cooling_electricity_households_cooling_airconditioning_electricity_parent_share</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570" s="30" t="s">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B570" s="31" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C570" s="31" t="str">
+      <c r="B572" s="28" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C572" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_cooling_electricity_households_cooling_heatpump_ground_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" s="30" t="s">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B571" s="31" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C571" s="31" t="str">
+      <c r="B573" s="28" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C573" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_households_final_demand_for_cooling_electricity_households_cooling_heatpump_air_water_electricity_parent_share</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A572" s="30" t="s">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B572" s="31" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C572" s="31" t="str">
+      <c r="B574" s="28" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C574" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_input_percentage_of_lt_steam_hot_water_households_final_demand_steam_hot_water</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A573" s="30" t="s">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B573" s="31" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C573" s="31" t="str">
+      <c r="B575" s="28" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C575" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_input_percentage_of_mt_steam_hot_water_households_final_demand_steam_hot_water</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574" s="30" t="s">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B574" s="31" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C574" s="31" t="str">
+      <c r="B576" s="28" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C576" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_input_percentage_of_ht_steam_hot_water_households_final_demand_steam_hot_water</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575" s="24" t="s">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B575" s="32" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C575" s="25" t="s">
+      <c r="B577" s="29" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C577" s="25" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A576" s="30" t="s">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B576" s="31" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C576" s="31" t="str">
+      <c r="B578" s="28" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C578" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_input_percentage_of_lt_steam_hot_water_buildings_final_demand_steam_hot_water</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" s="30" t="s">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B577" s="31" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C577" s="31" t="str">
+      <c r="B579" s="28" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C579" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_input_percentage_of_mt_steam_hot_water_buildings_final_demand_steam_hot_water</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" s="30" t="s">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B578" s="31" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C578" s="31" t="str">
+      <c r="B580" s="28" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C580" s="28" t="str">
         <f t="shared" si="6"/>
         <v>mq_input_percentage_of_ht_steam_hot_water_buildings_final_demand_steam_hot_water</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C579" t="str">
-        <f>"mq_"&amp;B579</f>
-        <v>mq_input_percentage_of_central_mt_steam_hot_water_agriculture_final_demand_steam_hot_water</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B580" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C580" t="str">
-        <f>"mq_"&amp;B580</f>
-        <v>mq_input_percentage_of_central_ht_steam_hot_water_agriculture_final_demand_steam_hot_water</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -15651,176 +12544,176 @@
         <v>0</v>
       </c>
       <c r="B581" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="C581" t="str">
         <f>"mq_"&amp;B581</f>
-        <v>mq_input_percentage_of_local_steam_hot_water_agriculture_final_demand_steam_hot_water</v>
+        <v>mq_input_percentage_of_central_mt_steam_hot_water_agriculture_final_demand_steam_hot_water</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="14" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B582" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1378</v>
+        <v>1364</v>
+      </c>
+      <c r="C582" t="str">
+        <f>"mq_"&amp;B582</f>
+        <v>mq_input_percentage_of_central_ht_steam_hot_water_agriculture_final_demand_steam_hot_water</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B583" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C583" t="s">
-        <v>1377</v>
+        <v>1365</v>
+      </c>
+      <c r="C583" t="str">
+        <f>"mq_"&amp;B583</f>
+        <v>mq_input_percentage_of_local_steam_hot_water_agriculture_final_demand_steam_hot_water</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B584" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C584" s="3" t="s">
+      <c r="B586" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C586" s="3" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B585" s="36" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C585" s="9" t="str">
-        <f t="shared" ref="C585:C598" si="7">"mq_" &amp; B585</f>
-        <v>mq_input_percentage_of_diesel_agriculture_final_demand_crude_oil</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B586" s="36" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C586" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>mq_input_percentage_of_biodiesel_agriculture_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B587" s="36" t="s">
-        <v>1390</v>
+      <c r="B587" s="33" t="s">
+        <v>1385</v>
       </c>
       <c r="C587" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>mq_input_percentage_of_kerosene_agriculture_final_demand_crude_oil</v>
+        <f t="shared" ref="C587:C600" si="7">"mq_" &amp; B587</f>
+        <v>mq_input_percentage_of_diesel_agriculture_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B588" s="36" t="s">
-        <v>1391</v>
+      <c r="B588" s="33" t="s">
+        <v>1386</v>
       </c>
       <c r="C588" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>mq_input_percentage_of_bio_kerosene_agriculture_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_biodiesel_agriculture_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B589" s="36" t="s">
-        <v>1392</v>
+      <c r="B589" s="33" t="s">
+        <v>1387</v>
       </c>
       <c r="C589" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>mq_input_percentage_of_lpg_agriculture_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_kerosene_agriculture_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B590" s="36" t="s">
-        <v>1393</v>
+      <c r="B590" s="33" t="s">
+        <v>1388</v>
       </c>
       <c r="C590" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>mq_input_percentage_of_bio_oil_agriculture_final_demand_crude_oil</v>
+        <v>mq_input_percentage_of_bio_kerosene_agriculture_final_demand_crude_oil</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B591" s="36" t="s">
-        <v>1394</v>
+      <c r="B591" s="33" t="s">
+        <v>1389</v>
       </c>
       <c r="C591" s="9" t="str">
         <f t="shared" si="7"/>
+        <v>mq_input_percentage_of_lpg_agriculture_final_demand_crude_oil</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B592" s="33" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C592" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>mq_input_percentage_of_bio_oil_agriculture_final_demand_crude_oil</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B593" s="33" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C593" s="9" t="str">
+        <f t="shared" si="7"/>
         <v>mq_input_percentage_of_crude_oil_agriculture_final_demand_crude_oil</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592" s="11" t="s">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B592" s="12" t="s">
+      <c r="B594" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C592" s="12" t="str">
+      <c r="C594" s="12" t="str">
         <f t="shared" si="7"/>
         <v>mq_bunkers_total_useful_demand_ships_demand</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A593" s="11" t="s">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B593" s="12" t="s">
+      <c r="B595" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C593" s="12" t="str">
+      <c r="C595" s="12" t="str">
         <f t="shared" si="7"/>
         <v>mq_bunkers_total_useful_demand_ships_demand</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A594" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B594" s="25" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C594" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>mq_typical_useful_demand_for_space_heating_apartments_future</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A595" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B595" s="25" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C595" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v>mq_typical_useful_demand_for_space_heating_detached_houses_future</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -15828,11 +12721,11 @@
         <v>192</v>
       </c>
       <c r="B596" s="25" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="C596" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>mq_typical_useful_demand_for_space_heating_semi_detached_houses_future</v>
+        <v>mq_typical_useful_demand_for_space_heating_apartments_future</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -15840,11 +12733,11 @@
         <v>192</v>
       </c>
       <c r="B597" s="25" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="C597" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>mq_typical_useful_demand_for_space_heating_terraced_houses_future</v>
+        <v>mq_typical_useful_demand_for_space_heating_detached_houses_future</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -15852,11 +12745,11 @@
         <v>192</v>
       </c>
       <c r="B598" s="25" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="C598" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>mq_typical_useful_demand_for_space_heating_buildings_future</v>
+        <v>mq_typical_useful_demand_for_space_heating_semi_detached_houses_future</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -15864,146 +12757,160 @@
         <v>192</v>
       </c>
       <c r="B599" s="25" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C599" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>mq_typical_useful_demand_for_space_heating_terraced_houses_future</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B600" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C600" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>mq_typical_useful_demand_for_space_heating_buildings_future</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B601" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C599" s="25" t="str">
-        <f t="shared" ref="C599" si="8">"mq_" &amp; B599</f>
+      <c r="C601" s="25" t="str">
+        <f t="shared" ref="C601" si="8">"mq_" &amp; B601</f>
         <v>mq_offshore_suitable_for_wind</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A600" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B600" s="39" t="s">
-        <v>763</v>
-      </c>
-      <c r="C600" s="39" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A601" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B601" s="39" t="s">
-        <v>764</v>
-      </c>
-      <c r="C601" s="39" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B602" s="39" t="s">
-        <v>765</v>
-      </c>
-      <c r="C602" s="39" t="s">
-        <v>1417</v>
+      <c r="B602" s="36" t="s">
+        <v>763</v>
+      </c>
+      <c r="C602" s="36" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B603" s="39" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C603" s="39" t="s">
+      <c r="B603" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="C603" s="36" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B604" s="36" t="s">
+        <v>765</v>
+      </c>
+      <c r="C604" s="36" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A604" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B604" s="40" t="s">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B605" s="36" t="s">
         <v>1421</v>
       </c>
-      <c r="C604" s="40" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A605" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B605" s="40" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C605" s="40" t="s">
-        <v>1419</v>
+      <c r="C605" s="36" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B606" s="40" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C606" s="40" t="s">
-        <v>1420</v>
+      <c r="B606" s="37" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C606" s="37" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B607" s="40" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C607" s="40" t="s">
-        <v>762</v>
+      <c r="B607" s="37" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C607" s="37" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B608" s="40" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C608" s="40" t="s">
-        <v>1426</v>
+      <c r="B608" s="37" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C608" s="37" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B609" s="40" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C609" s="40" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E609" s="8"/>
+      <c r="B609" s="37" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C609" s="37" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A610" s="17"/>
-      <c r="B610" s="8"/>
-      <c r="C610" s="9"/>
+      <c r="A610" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B610" s="37" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C610" s="37" t="s">
+        <v>1423</v>
+      </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A611" s="17"/>
-      <c r="B611" s="8"/>
-      <c r="C611" s="9"/>
+      <c r="A611" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B611" s="37" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C611" s="37" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E611" s="8"/>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612" s="17"/>
+      <c r="B612" s="8"/>
       <c r="C612" s="9"/>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" s="17"/>
-      <c r="B613" s="9"/>
+      <c r="B613" s="8"/>
       <c r="C613" s="9"/>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" s="17"/>
-      <c r="B614" s="9"/>
       <c r="C614" s="9"/>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.2">
@@ -16031,8 +12938,18 @@
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
     </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A620" s="17"/>
+      <c r="B620" s="9"/>
+      <c r="C620" s="9"/>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A621" s="17"/>
+      <c r="B621" s="9"/>
+      <c r="C621" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C581" xr:uid="{B7413CD7-1654-6445-A0B9-33DD140B272B}"/>
+  <autoFilter ref="A1:C583" xr:uid="{B7413CD7-1654-6445-A0B9-33DD140B272B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -16045,9 +12962,9 @@
   </sheetPr>
   <dimension ref="A1:AF276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="D1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H276" sqref="H276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16140,37 +13057,37 @@
         <v>562</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>1409</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>1410</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>1411</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -16336,7 +13253,7 @@
         <v>192</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>190</v>
@@ -16370,7 +13287,7 @@
         <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>190</v>
@@ -16404,7 +13321,7 @@
         <v>192</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>190</v>
@@ -16438,7 +13355,7 @@
         <v>192</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>190</v>
@@ -16472,7 +13389,7 @@
         <v>192</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>190</v>
@@ -16858,7 +13775,7 @@
         <v>196</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -18218,13 +15135,13 @@
         <v>190</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G66" t="s">
         <v>196</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -18244,13 +15161,13 @@
         <v>190</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G67" t="s">
         <v>196</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -18270,13 +15187,13 @@
         <v>190</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G68" t="s">
         <v>196</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -18296,13 +15213,13 @@
         <v>190</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G69" t="s">
         <v>196</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -18328,7 +15245,7 @@
         <v>196</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -18672,13 +15589,13 @@
         <v>190</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G83" t="s">
         <v>196</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -18698,13 +15615,13 @@
         <v>190</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G84" t="s">
         <v>196</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -18724,13 +15641,13 @@
         <v>190</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G85" t="s">
         <v>196</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -18750,13 +15667,13 @@
         <v>190</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G86" t="s">
         <v>196</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -18782,7 +15699,7 @@
         <v>196</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -18856,7 +15773,7 @@
         <v>28</v>
       </c>
       <c r="D91" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E91" t="s">
         <v>190</v>
@@ -18868,7 +15785,7 @@
         <v>196</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -19090,7 +16007,7 @@
         <v>28</v>
       </c>
       <c r="D100" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E100" t="s">
         <v>190</v>
@@ -19102,7 +16019,7 @@
         <v>196</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -19116,19 +16033,19 @@
         <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E101" t="s">
         <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G101" t="s">
         <v>196</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -19142,19 +16059,19 @@
         <v>28</v>
       </c>
       <c r="D102" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E102" t="s">
         <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G102" t="s">
         <v>196</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -19168,19 +16085,19 @@
         <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E103" t="s">
         <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G103" t="s">
         <v>196</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -19194,19 +16111,19 @@
         <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E104" t="s">
         <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G104" t="s">
         <v>196</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -19220,19 +16137,19 @@
         <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E105" t="s">
         <v>190</v>
       </c>
       <c r="F105" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G105" t="s">
         <v>196</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -19246,19 +16163,19 @@
         <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E106" t="s">
         <v>190</v>
       </c>
       <c r="F106" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G106" t="s">
         <v>196</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -19272,19 +16189,19 @@
         <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E107" t="s">
         <v>190</v>
       </c>
       <c r="F107" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G107" t="s">
         <v>196</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -19298,19 +16215,19 @@
         <v>28</v>
       </c>
       <c r="D108" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E108" t="s">
         <v>190</v>
       </c>
       <c r="F108" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G108" t="s">
         <v>196</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -19610,19 +16527,19 @@
         <v>28</v>
       </c>
       <c r="D120" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E120" t="s">
         <v>190</v>
       </c>
       <c r="F120" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G120" t="s">
         <v>196</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -19636,19 +16553,19 @@
         <v>28</v>
       </c>
       <c r="D121" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E121" t="s">
         <v>190</v>
       </c>
       <c r="F121" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G121" t="s">
         <v>196</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -19662,19 +16579,19 @@
         <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E122" t="s">
         <v>190</v>
       </c>
       <c r="F122" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G122" t="s">
         <v>196</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -19688,19 +16605,19 @@
         <v>28</v>
       </c>
       <c r="D123" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E123" t="s">
         <v>190</v>
       </c>
       <c r="F123" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G123" t="s">
         <v>196</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -19740,7 +16657,7 @@
         <v>28</v>
       </c>
       <c r="D125" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E125" t="s">
         <v>190</v>
@@ -19752,7 +16669,7 @@
         <v>196</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -19766,7 +16683,7 @@
         <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E126" t="s">
         <v>190</v>
@@ -19778,7 +16695,7 @@
         <v>196</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -19792,7 +16709,7 @@
         <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E127" t="s">
         <v>190</v>
@@ -19804,7 +16721,7 @@
         <v>196</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -19818,7 +16735,7 @@
         <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E128" t="s">
         <v>190</v>
@@ -19830,7 +16747,7 @@
         <v>196</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -19844,7 +16761,7 @@
         <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E129" t="s">
         <v>190</v>
@@ -19856,7 +16773,7 @@
         <v>196</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -19870,7 +16787,7 @@
         <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E130" t="s">
         <v>190</v>
@@ -19882,7 +16799,7 @@
         <v>196</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -19896,7 +16813,7 @@
         <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E131" t="s">
         <v>190</v>
@@ -19908,7 +16825,7 @@
         <v>196</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -19922,7 +16839,7 @@
         <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E132" t="s">
         <v>190</v>
@@ -19934,7 +16851,7 @@
         <v>196</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -19974,19 +16891,19 @@
         <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E134" t="s">
         <v>190</v>
       </c>
       <c r="F134" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G134" t="s">
         <v>196</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -20000,19 +16917,19 @@
         <v>28</v>
       </c>
       <c r="D135" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E135" t="s">
         <v>190</v>
       </c>
       <c r="F135" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G135" t="s">
         <v>196</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -20026,19 +16943,19 @@
         <v>28</v>
       </c>
       <c r="D136" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E136" t="s">
         <v>190</v>
       </c>
       <c r="F136" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G136" t="s">
         <v>196</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -20052,19 +16969,19 @@
         <v>28</v>
       </c>
       <c r="D137" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E137" t="s">
         <v>190</v>
       </c>
       <c r="F137" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G137" t="s">
         <v>196</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -20078,19 +16995,19 @@
         <v>28</v>
       </c>
       <c r="D138" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E138" t="s">
         <v>190</v>
       </c>
       <c r="F138" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G138" t="s">
         <v>196</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -20104,19 +17021,19 @@
         <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E139" t="s">
         <v>190</v>
       </c>
       <c r="F139" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G139" t="s">
         <v>196</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -20130,19 +17047,19 @@
         <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E140" t="s">
         <v>190</v>
       </c>
       <c r="F140" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G140" t="s">
         <v>196</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -20182,7 +17099,7 @@
         <v>28</v>
       </c>
       <c r="D142" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E142" t="s">
         <v>190</v>
@@ -20194,7 +17111,7 @@
         <v>196</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -20220,7 +17137,7 @@
         <v>196</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -20416,7 +17333,7 @@
         <v>28</v>
       </c>
       <c r="D151" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E151" t="s">
         <v>190</v>
@@ -20428,7 +17345,7 @@
         <v>196</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -20442,7 +17359,7 @@
         <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E152" t="s">
         <v>190</v>
@@ -20454,7 +17371,7 @@
         <v>196</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -20468,7 +17385,7 @@
         <v>28</v>
       </c>
       <c r="D153" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E153" t="s">
         <v>190</v>
@@ -20480,7 +17397,7 @@
         <v>196</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -20494,7 +17411,7 @@
         <v>28</v>
       </c>
       <c r="D154" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E154" t="s">
         <v>190</v>
@@ -20506,7 +17423,7 @@
         <v>196</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -20520,7 +17437,7 @@
         <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E155" t="s">
         <v>190</v>
@@ -20532,7 +17449,7 @@
         <v>196</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -20546,7 +17463,7 @@
         <v>28</v>
       </c>
       <c r="D156" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E156" t="s">
         <v>190</v>
@@ -20558,7 +17475,7 @@
         <v>196</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -20572,7 +17489,7 @@
         <v>28</v>
       </c>
       <c r="D157" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E157" t="s">
         <v>190</v>
@@ -20584,7 +17501,7 @@
         <v>196</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -20598,7 +17515,7 @@
         <v>28</v>
       </c>
       <c r="D158" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E158" t="s">
         <v>190</v>
@@ -20610,7 +17527,7 @@
         <v>196</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -20624,7 +17541,7 @@
         <v>28</v>
       </c>
       <c r="D159" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E159" t="s">
         <v>190</v>
@@ -20636,7 +17553,7 @@
         <v>196</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -20650,7 +17567,7 @@
         <v>28</v>
       </c>
       <c r="D160" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E160" t="s">
         <v>190</v>
@@ -20662,7 +17579,7 @@
         <v>196</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -20676,7 +17593,7 @@
         <v>28</v>
       </c>
       <c r="D161" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E161" t="s">
         <v>190</v>
@@ -20688,7 +17605,7 @@
         <v>196</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -20702,7 +17619,7 @@
         <v>28</v>
       </c>
       <c r="D162" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E162" t="s">
         <v>190</v>
@@ -20714,7 +17631,7 @@
         <v>196</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -20728,7 +17645,7 @@
         <v>28</v>
       </c>
       <c r="D163" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E163" t="s">
         <v>190</v>
@@ -20740,7 +17657,7 @@
         <v>196</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -22264,37 +19181,37 @@
         <v>207</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="M217" t="s">
         <v>207</v>
       </c>
       <c r="N217" s="8" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="O217" t="s">
         <v>207</v>
       </c>
       <c r="P217" s="8" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="Q217" t="s">
         <v>207</v>
       </c>
       <c r="R217" s="8" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="S217" t="s">
         <v>207</v>
       </c>
       <c r="T217" s="8" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="U217" t="s">
         <v>207</v>
       </c>
       <c r="V217" s="8" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="218" spans="1:32" x14ac:dyDescent="0.2">
@@ -23254,7 +20171,7 @@
         <v>220</v>
       </c>
       <c r="H250" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
@@ -23502,29 +20419,29 @@
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A259" s="38" t="s">
+      <c r="A259" s="35" t="s">
         <v>794</v>
       </c>
-      <c r="B259" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C259" s="38" t="s">
+      <c r="B259" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C259" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="D259" s="38" t="s">
+      <c r="D259" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="E259" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F259" s="38" t="s">
+      <c r="E259" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F259" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="G259" s="38" t="s">
+      <c r="G259" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="H259" s="38" t="s">
-        <v>1401</v>
+      <c r="H259" s="35" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.2">
@@ -23698,12 +20615,12 @@
         <v>190</v>
       </c>
       <c r="F265" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="G265" t="s">
         <v>196</v>
       </c>
-      <c r="H265" s="35">
+      <c r="H265" s="32">
         <v>3.5999999999999998E-6</v>
       </c>
     </row>
@@ -23724,12 +20641,12 @@
         <v>190</v>
       </c>
       <c r="F266" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G266" t="s">
         <v>196</v>
       </c>
-      <c r="H266" s="35">
+      <c r="H266" s="32">
         <v>3.5999999999999998E-6</v>
       </c>
     </row>
@@ -23750,12 +20667,12 @@
         <v>190</v>
       </c>
       <c r="F267" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G267" t="s">
         <v>196</v>
       </c>
-      <c r="H267" s="35">
+      <c r="H267" s="32">
         <v>3.5999999999999998E-6</v>
       </c>
     </row>
@@ -23848,7 +20765,7 @@
         <v>192</v>
       </c>
       <c r="D271" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E271" t="s">
         <v>190</v>
@@ -23860,7 +20777,7 @@
         <v>196</v>
       </c>
       <c r="H271" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.2">
@@ -23874,7 +20791,7 @@
         <v>342</v>
       </c>
       <c r="D272" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E272" t="s">
         <v>190</v>
@@ -23886,7 +20803,7 @@
         <v>196</v>
       </c>
       <c r="H272" t="s">
-        <v>1369</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -23900,13 +20817,13 @@
         <v>116</v>
       </c>
       <c r="D273" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E273" t="s">
         <v>190</v>
       </c>
       <c r="F273" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -23926,13 +20843,13 @@
         <v>190</v>
       </c>
       <c r="F274" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="G274" t="s">
         <v>196</v>
       </c>
       <c r="H274" s="8" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -23946,19 +20863,19 @@
         <v>6</v>
       </c>
       <c r="D275" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E275" t="s">
         <v>190</v>
       </c>
       <c r="F275" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="G275" t="s">
         <v>196</v>
       </c>
       <c r="H275" t="s">
-        <v>1369</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -23972,7 +20889,7 @@
         <v>20</v>
       </c>
       <c r="D276" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E276" t="s">
         <v>190</v>
@@ -23984,7 +20901,7 @@
         <v>196</v>
       </c>
       <c r="H276" t="s">
-        <v>1369</v>
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -24319,14 +21236,14 @@
         <v>368</v>
       </c>
       <c r="F13" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="37"/>
+      <c r="B23" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27625,10 +24542,10 @@
         <v>739</v>
       </c>
       <c r="C65" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D65" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G65" t="s">
         <v>441</v>
@@ -27642,10 +24559,10 @@
         <v>739</v>
       </c>
       <c r="C66" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D66" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G66" t="s">
         <v>442</v>
@@ -27659,10 +24576,10 @@
         <v>739</v>
       </c>
       <c r="C67" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D67" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G67" t="s">
         <v>451</v>
@@ -27676,10 +24593,10 @@
         <v>739</v>
       </c>
       <c r="C68" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D68" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G68" t="s">
         <v>452</v>
@@ -27693,10 +24610,10 @@
         <v>739</v>
       </c>
       <c r="C69" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D69" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G69" t="s">
         <v>461</v>
@@ -27710,10 +24627,10 @@
         <v>739</v>
       </c>
       <c r="C70" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D70" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G70" t="s">
         <v>462</v>
@@ -27727,10 +24644,10 @@
         <v>739</v>
       </c>
       <c r="C71" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D71" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G71" t="s">
         <v>277</v>
@@ -27772,10 +24689,10 @@
         <v>739</v>
       </c>
       <c r="C74" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D74" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G74" t="s">
         <v>312</v>
@@ -27789,10 +24706,10 @@
         <v>739</v>
       </c>
       <c r="C75" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D75" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G75" t="s">
         <v>314</v>
@@ -27806,10 +24723,10 @@
         <v>739</v>
       </c>
       <c r="C76" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D76" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G76" t="s">
         <v>315</v>
@@ -27823,10 +24740,10 @@
         <v>739</v>
       </c>
       <c r="C77" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D77" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G77" t="s">
         <v>297</v>
@@ -27840,10 +24757,10 @@
         <v>739</v>
       </c>
       <c r="C78" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D78" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G78" t="s">
         <v>290</v>
@@ -27857,10 +24774,10 @@
         <v>739</v>
       </c>
       <c r="C79" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D79" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G79" t="s">
         <v>159</v>
@@ -27874,10 +24791,10 @@
         <v>739</v>
       </c>
       <c r="C80" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D80" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G80" t="s">
         <v>298</v>
@@ -27891,10 +24808,10 @@
         <v>739</v>
       </c>
       <c r="C81" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D81" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G81" t="s">
         <v>299</v>
@@ -27936,10 +24853,10 @@
         <v>739</v>
       </c>
       <c r="C84" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D84" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G84" t="s">
         <v>467</v>
@@ -27953,10 +24870,10 @@
         <v>739</v>
       </c>
       <c r="C85" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D85" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G85" t="s">
         <v>468</v>
@@ -27970,10 +24887,10 @@
         <v>739</v>
       </c>
       <c r="C86" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D86" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G86" t="s">
         <v>269</v>
@@ -27987,10 +24904,10 @@
         <v>739</v>
       </c>
       <c r="C87" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D87" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G87" t="s">
         <v>470</v>
@@ -28004,10 +24921,10 @@
         <v>739</v>
       </c>
       <c r="C88" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D88" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G88" t="s">
         <v>352</v>
@@ -28021,10 +24938,10 @@
         <v>739</v>
       </c>
       <c r="C89" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D89" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G89" t="s">
         <v>360</v>
@@ -28038,10 +24955,10 @@
         <v>739</v>
       </c>
       <c r="C90" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D90" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G90" t="s">
         <v>276</v>
@@ -28055,10 +24972,10 @@
         <v>739</v>
       </c>
       <c r="C91" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D91" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G91" t="s">
         <v>471</v>
@@ -28100,10 +25017,10 @@
         <v>739</v>
       </c>
       <c r="C94" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D94" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G94" t="s">
         <v>473</v>
@@ -29133,7 +26050,7 @@
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B168" t="s">
         <v>768</v>
@@ -29147,7 +26064,7 @@
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B169" t="s">
         <v>768</v>
@@ -29161,7 +26078,7 @@
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B170" t="s">
         <v>768</v>
@@ -29217,91 +26134,91 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B174" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C174" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D174" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B175" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C175" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D175" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B176" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C176" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D176" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B177" t="s">
         <v>1383</v>
       </c>
-      <c r="B177" t="s">
-        <v>1386</v>
-      </c>
       <c r="C177" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D177" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B178" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C178" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D178" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B179" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C179" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D179" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B180" t="s">
         <v>768</v>
@@ -29315,10 +26232,10 @@
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B181" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>775</v>
@@ -29329,10 +26246,10 @@
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B182" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>775</v>
@@ -29343,10 +26260,10 @@
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B183" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>775</v>
@@ -29357,10 +26274,10 @@
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B184" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>775</v>
@@ -29371,10 +26288,10 @@
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B185" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>775</v>
@@ -29385,7 +26302,7 @@
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B186" t="s">
         <v>768</v>
@@ -29399,7 +26316,7 @@
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B187" t="s">
         <v>768</v>
